--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\OneDrive\Documenten\GitHub\OWFSim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E26F42-3421-4049-9BAA-D5A2D2ECDF82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5957DA4-2E5C-4DD6-8FFD-FD4E70529644}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -610,6 +610,21 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="11">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="8" borderId="0" xfId="6" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -657,21 +672,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="8" borderId="0" xfId="6" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1084,8 +1084,8 @@
   </sheetPr>
   <dimension ref="B1:BO30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="H4" sqref="H1:J1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1108,80 +1108,80 @@
       <c r="G1" s="12"/>
     </row>
     <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
       <c r="G2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="H2" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" s="15"/>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="31"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="36"/>
       <c r="P2" s="16"/>
-      <c r="Q2" s="29" t="s">
+      <c r="Q2" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="31"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="36"/>
       <c r="U2" s="17"/>
-      <c r="V2" s="21" t="s">
+      <c r="V2" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="33"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="38"/>
       <c r="Z2" s="18"/>
-      <c r="AA2" s="34" t="s">
+      <c r="AA2" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="36"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="40"/>
+      <c r="AG2" s="41"/>
       <c r="AH2" s="19"/>
-      <c r="AI2" s="21" t="s">
+      <c r="AI2" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="AJ2" s="22"/>
-      <c r="AK2" s="22"/>
-      <c r="AL2" s="22"/>
-      <c r="AM2" s="22"/>
-      <c r="AN2" s="22"/>
-      <c r="AO2" s="22"/>
-      <c r="AP2" s="22"/>
+      <c r="AJ2" s="27"/>
+      <c r="AK2" s="27"/>
+      <c r="AL2" s="27"/>
+      <c r="AM2" s="27"/>
+      <c r="AN2" s="27"/>
+      <c r="AO2" s="27"/>
+      <c r="AP2" s="27"/>
     </row>
     <row r="3" spans="2:67" s="11" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="33" t="s">
         <v>22</v>
       </c>
       <c r="H3" s="20" t="s">
@@ -1208,12 +1208,12 @@
       <c r="AA3" s="10"/>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="25"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -1395,45 +1395,45 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="2:67" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="37" t="s">
+    <row r="5" spans="2:67" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C5" s="22">
         <v>1</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="22">
         <v>12</v>
       </c>
-      <c r="E5" s="38">
-        <v>0</v>
-      </c>
-      <c r="F5" s="38">
-        <v>0</v>
-      </c>
-      <c r="G5" s="39">
-        <v>0</v>
-      </c>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="40"/>
-      <c r="U5" s="40"/>
-      <c r="V5" s="40"/>
-      <c r="W5" s="40"/>
-      <c r="X5" s="40"/>
-      <c r="Y5" s="40"/>
-      <c r="Z5" s="40"/>
-      <c r="AA5" s="40"/>
+      <c r="E5" s="22">
+        <v>1</v>
+      </c>
+      <c r="F5" s="22">
+        <v>1</v>
+      </c>
+      <c r="G5" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
+      <c r="W5" s="24"/>
+      <c r="X5" s="24"/>
+      <c r="Y5" s="24"/>
+      <c r="Z5" s="24"/>
+      <c r="AA5" s="24"/>
     </row>
     <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
@@ -1446,13 +1446,13 @@
         <v>3</v>
       </c>
       <c r="E6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="8">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1475,45 +1475,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:67" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="37" t="s">
+    <row r="8" spans="2:67" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="38">
+      <c r="C8" s="22">
         <v>4</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="22">
         <v>9</v>
       </c>
-      <c r="E8" s="38">
-        <v>0</v>
-      </c>
-      <c r="F8" s="38">
-        <v>0</v>
-      </c>
-      <c r="G8" s="39">
-        <v>0</v>
-      </c>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="40"/>
-      <c r="U8" s="40"/>
-      <c r="V8" s="40"/>
-      <c r="W8" s="40"/>
-      <c r="X8" s="40"/>
-      <c r="Y8" s="40"/>
-      <c r="Z8" s="40"/>
-      <c r="AA8" s="40"/>
+      <c r="E8" s="22">
+        <v>0</v>
+      </c>
+      <c r="F8" s="22">
+        <v>0</v>
+      </c>
+      <c r="G8" s="23">
+        <v>0</v>
+      </c>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
+      <c r="X8" s="24"/>
+      <c r="Y8" s="24"/>
+      <c r="Z8" s="24"/>
+      <c r="AA8" s="24"/>
     </row>
     <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
@@ -1575,45 +1575,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:67" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="37" t="s">
+    <row r="12" spans="2:67" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="38">
+      <c r="C12" s="22">
         <v>7</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="22">
         <v>10</v>
       </c>
-      <c r="E12" s="38">
-        <v>0</v>
-      </c>
-      <c r="F12" s="38">
-        <v>0</v>
-      </c>
-      <c r="G12" s="39">
-        <v>0</v>
-      </c>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="40"/>
-      <c r="R12" s="40"/>
-      <c r="S12" s="40"/>
-      <c r="T12" s="40"/>
-      <c r="U12" s="40"/>
-      <c r="V12" s="40"/>
-      <c r="W12" s="40"/>
-      <c r="X12" s="40"/>
-      <c r="Y12" s="40"/>
-      <c r="Z12" s="40"/>
-      <c r="AA12" s="40"/>
+      <c r="E12" s="22">
+        <v>0</v>
+      </c>
+      <c r="F12" s="22">
+        <v>0</v>
+      </c>
+      <c r="G12" s="23">
+        <v>0</v>
+      </c>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="24"/>
+      <c r="W12" s="24"/>
+      <c r="X12" s="24"/>
+      <c r="Y12" s="24"/>
+      <c r="Z12" s="24"/>
+      <c r="AA12" s="24"/>
     </row>
     <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
@@ -1675,85 +1675,85 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:67" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="37" t="s">
+    <row r="16" spans="2:67" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="38">
+      <c r="C16" s="22">
         <v>10</v>
       </c>
-      <c r="D16" s="38">
+      <c r="D16" s="22">
         <v>4</v>
       </c>
-      <c r="E16" s="38">
-        <v>0</v>
-      </c>
-      <c r="F16" s="38">
-        <v>0</v>
-      </c>
-      <c r="G16" s="39">
-        <v>0</v>
-      </c>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="40"/>
-      <c r="T16" s="40"/>
-      <c r="U16" s="40"/>
-      <c r="V16" s="40"/>
-      <c r="W16" s="40"/>
-      <c r="X16" s="40"/>
-      <c r="Y16" s="40"/>
-      <c r="Z16" s="40"/>
-      <c r="AA16" s="40"/>
-    </row>
-    <row r="17" spans="2:27" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="37" t="s">
+      <c r="E16" s="22">
+        <v>0</v>
+      </c>
+      <c r="F16" s="22">
+        <v>0</v>
+      </c>
+      <c r="G16" s="23">
+        <v>0</v>
+      </c>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="24"/>
+      <c r="V16" s="24"/>
+      <c r="W16" s="24"/>
+      <c r="X16" s="24"/>
+      <c r="Y16" s="24"/>
+      <c r="Z16" s="24"/>
+      <c r="AA16" s="24"/>
+    </row>
+    <row r="17" spans="2:27" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="38">
+      <c r="C17" s="22">
         <v>12</v>
       </c>
-      <c r="D17" s="38">
+      <c r="D17" s="22">
         <v>8</v>
       </c>
-      <c r="E17" s="38">
-        <v>0</v>
-      </c>
-      <c r="F17" s="38">
-        <v>0</v>
-      </c>
-      <c r="G17" s="39">
-        <v>0</v>
-      </c>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="40"/>
-      <c r="T17" s="40"/>
-      <c r="U17" s="40"/>
-      <c r="V17" s="40"/>
-      <c r="W17" s="40"/>
-      <c r="X17" s="40"/>
-      <c r="Y17" s="40"/>
-      <c r="Z17" s="40"/>
-      <c r="AA17" s="40"/>
+      <c r="E17" s="22">
+        <v>0</v>
+      </c>
+      <c r="F17" s="22">
+        <v>0</v>
+      </c>
+      <c r="G17" s="23">
+        <v>0</v>
+      </c>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="24"/>
+      <c r="W17" s="24"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="24"/>
+      <c r="Z17" s="24"/>
+      <c r="AA17" s="24"/>
     </row>
     <row r="18" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\OneDrive\Documenten\GitHub\OWFSim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5957DA4-2E5C-4DD6-8FFD-FD4E70529644}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6EFA520-F17D-4422-9311-F1280D3EDF27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1085,7 +1085,7 @@
   <dimension ref="B1:BO30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1449,10 +1449,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" s="8">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1486,13 +1486,13 @@
         <v>9</v>
       </c>
       <c r="E8" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="23">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H8" s="24"/>
       <c r="I8" s="24"/>
@@ -1526,13 +1526,13 @@
         <v>2</v>
       </c>
       <c r="E9" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="8">
-        <v>0</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\OneDrive\Documenten\GitHub\OWFSim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6EFA520-F17D-4422-9311-F1280D3EDF27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B482BD24-14CD-4EE4-856A-4B85E097651C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>Project Planner</t>
   </si>
@@ -229,6 +229,9 @@
   </si>
   <si>
     <t>Paper</t>
+  </si>
+  <si>
+    <t>Bugfixing</t>
   </si>
 </sst>
 </file>
@@ -1082,10 +1085,10 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:BO30"/>
+  <dimension ref="B1:BO31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1119,7 +1122,7 @@
         <v>17</v>
       </c>
       <c r="H2" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="34" t="s">
@@ -1409,7 +1412,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G5" s="23">
         <v>0.2</v>
@@ -1449,198 +1452,198 @@
         <v>1</v>
       </c>
       <c r="F6" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" s="8">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>5</v>
       </c>
       <c r="D7" s="7">
+        <v>2</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="7">
+        <v>5</v>
+      </c>
+      <c r="D8" s="7">
         <v>8</v>
       </c>
-      <c r="E7" s="7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:67" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="21" t="s">
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:67" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C9" s="22">
         <v>4</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D9" s="22">
         <v>9</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E9" s="22">
         <v>2</v>
       </c>
-      <c r="F8" s="22">
-        <v>1</v>
-      </c>
-      <c r="G8" s="23">
+      <c r="F9" s="22">
+        <v>2</v>
+      </c>
+      <c r="G9" s="23">
         <v>0.1</v>
       </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="24"/>
-      <c r="X8" s="24"/>
-      <c r="Y8" s="24"/>
-      <c r="Z8" s="24"/>
-      <c r="AA8" s="24"/>
-    </row>
-    <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="7">
-        <v>4</v>
-      </c>
-      <c r="D9" s="7">
-        <v>2</v>
-      </c>
-      <c r="E9" s="7">
-        <v>2</v>
-      </c>
-      <c r="F9" s="7">
-        <v>1</v>
-      </c>
-      <c r="G9" s="8">
-        <v>0.15</v>
-      </c>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="24"/>
+      <c r="W9" s="24"/>
+      <c r="X9" s="24"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="24"/>
+      <c r="AA9" s="24"/>
     </row>
     <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C10" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
         <v>2</v>
       </c>
       <c r="E10" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F10" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G10" s="8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="7">
+        <v>5</v>
+      </c>
+      <c r="D11" s="7">
+        <v>2</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C12" s="7">
         <v>9</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D12" s="7">
         <v>4</v>
       </c>
-      <c r="E11" s="7">
-        <v>0</v>
-      </c>
-      <c r="F11" s="7">
-        <v>0</v>
-      </c>
-      <c r="G11" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:67" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="21" t="s">
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:67" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C13" s="22">
         <v>7</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D13" s="22">
         <v>10</v>
       </c>
-      <c r="E12" s="22">
-        <v>0</v>
-      </c>
-      <c r="F12" s="22">
-        <v>0</v>
-      </c>
-      <c r="G12" s="23">
-        <v>0</v>
-      </c>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="24"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="24"/>
-      <c r="X12" s="24"/>
-      <c r="Y12" s="24"/>
-      <c r="Z12" s="24"/>
-      <c r="AA12" s="24"/>
-    </row>
-    <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="7">
-        <v>7</v>
-      </c>
-      <c r="D13" s="7">
-        <v>3</v>
-      </c>
-      <c r="E13" s="7">
-        <v>0</v>
-      </c>
-      <c r="F13" s="7">
-        <v>0</v>
-      </c>
-      <c r="G13" s="8">
-        <v>0</v>
-      </c>
+      <c r="E13" s="22">
+        <v>0</v>
+      </c>
+      <c r="F13" s="22">
+        <v>0</v>
+      </c>
+      <c r="G13" s="23">
+        <v>0</v>
+      </c>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
+      <c r="W13" s="24"/>
+      <c r="X13" s="24"/>
+      <c r="Y13" s="24"/>
+      <c r="Z13" s="24"/>
+      <c r="AA13" s="24"/>
     </row>
     <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D14" s="7">
         <v>3</v>
@@ -1657,73 +1660,53 @@
     </row>
     <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="7">
+        <v>9</v>
+      </c>
+      <c r="D15" s="7">
+        <v>3</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C16" s="7">
         <v>10</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D16" s="7">
         <v>2</v>
       </c>
-      <c r="E15" s="7">
-        <v>0</v>
-      </c>
-      <c r="F15" s="7">
-        <v>0</v>
-      </c>
-      <c r="G15" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:67" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="22">
-        <v>10</v>
-      </c>
-      <c r="D16" s="22">
-        <v>4</v>
-      </c>
-      <c r="E16" s="22">
-        <v>0</v>
-      </c>
-      <c r="F16" s="22">
-        <v>0</v>
-      </c>
-      <c r="G16" s="23">
-        <v>0</v>
-      </c>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="24"/>
-      <c r="V16" s="24"/>
-      <c r="W16" s="24"/>
-      <c r="X16" s="24"/>
-      <c r="Y16" s="24"/>
-      <c r="Z16" s="24"/>
-      <c r="AA16" s="24"/>
+      <c r="E16" s="7">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
+      <c r="G16" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="2:27" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17" s="22">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D17" s="22">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E17" s="22">
         <v>0</v>
@@ -1755,32 +1738,52 @@
       <c r="Z17" s="24"/>
       <c r="AA17" s="24"/>
     </row>
-    <row r="18" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="7">
+    <row r="18" spans="2:27" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="22">
         <v>12</v>
       </c>
-      <c r="D18" s="7">
-        <v>4</v>
-      </c>
-      <c r="E18" s="7">
-        <v>0</v>
-      </c>
-      <c r="F18" s="7">
-        <v>0</v>
-      </c>
-      <c r="G18" s="8">
-        <v>0</v>
-      </c>
+      <c r="D18" s="22">
+        <v>8</v>
+      </c>
+      <c r="E18" s="22">
+        <v>0</v>
+      </c>
+      <c r="F18" s="22">
+        <v>0</v>
+      </c>
+      <c r="G18" s="23">
+        <v>0</v>
+      </c>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="24"/>
+      <c r="U18" s="24"/>
+      <c r="V18" s="24"/>
+      <c r="W18" s="24"/>
+      <c r="X18" s="24"/>
+      <c r="Y18" s="24"/>
+      <c r="Z18" s="24"/>
+      <c r="AA18" s="24"/>
     </row>
     <row r="19" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D19" s="7">
         <v>4</v>
@@ -1797,13 +1800,13 @@
     </row>
     <row r="20" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E20" s="7">
         <v>0</v>
@@ -1817,7 +1820,7 @@
     </row>
     <row r="21" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -1837,7 +1840,7 @@
     </row>
     <row r="22" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -1857,7 +1860,7 @@
     </row>
     <row r="23" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
@@ -1877,7 +1880,7 @@
     </row>
     <row r="24" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24" s="7">
         <v>0</v>
@@ -1897,7 +1900,7 @@
     </row>
     <row r="25" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C25" s="7">
         <v>0</v>
@@ -1917,7 +1920,7 @@
     </row>
     <row r="26" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -1937,7 +1940,7 @@
     </row>
     <row r="27" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C27" s="7">
         <v>0</v>
@@ -1957,7 +1960,7 @@
     </row>
     <row r="28" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C28" s="7">
         <v>0</v>
@@ -1977,7 +1980,7 @@
     </row>
     <row r="29" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C29" s="7">
         <v>0</v>
@@ -1997,21 +2000,41 @@
     </row>
     <row r="30" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="7">
+        <v>0</v>
+      </c>
+      <c r="D30" s="7">
+        <v>0</v>
+      </c>
+      <c r="E30" s="7">
+        <v>0</v>
+      </c>
+      <c r="F30" s="7">
+        <v>0</v>
+      </c>
+      <c r="G30" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="7">
-        <v>0</v>
-      </c>
-      <c r="D30" s="7">
-        <v>0</v>
-      </c>
-      <c r="E30" s="7">
-        <v>0</v>
-      </c>
-      <c r="F30" s="7">
-        <v>0</v>
-      </c>
-      <c r="G30" s="8">
+      <c r="C31" s="7">
+        <v>0</v>
+      </c>
+      <c r="D31" s="7">
+        <v>0</v>
+      </c>
+      <c r="E31" s="7">
+        <v>0</v>
+      </c>
+      <c r="F31" s="7">
+        <v>0</v>
+      </c>
+      <c r="G31" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2030,7 +2053,7 @@
     <mergeCell ref="V2:Y2"/>
     <mergeCell ref="AA2:AG2"/>
   </mergeCells>
-  <conditionalFormatting sqref="H5:BO30">
+  <conditionalFormatting sqref="H5:BO31">
     <cfRule type="expression" dxfId="9" priority="1">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -2056,7 +2079,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B31:BO31">
+  <conditionalFormatting sqref="B32:BO32">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>TRUE</formula>
     </cfRule>

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\OneDrive\Documenten\GitHub\OWFSim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B482BD24-14CD-4EE4-856A-4B85E097651C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43251EF5-CB04-4CFB-85F2-66C0FAFB62DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1088,7 +1088,7 @@
   <dimension ref="B1:BO31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1122,7 +1122,7 @@
         <v>17</v>
       </c>
       <c r="H2" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="34" t="s">
@@ -1412,7 +1412,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5" s="23">
         <v>0.2</v>
@@ -1512,10 +1512,10 @@
         <v>2</v>
       </c>
       <c r="F9" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9" s="23">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
@@ -1552,10 +1552,10 @@
         <v>2</v>
       </c>
       <c r="F10" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G10" s="8">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1569,13 +1569,13 @@
         <v>2</v>
       </c>
       <c r="E11" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="8">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\OneDrive\Documenten\GitHub\OWFSim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43251EF5-CB04-4CFB-85F2-66C0FAFB62DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951B728A-59A7-4146-8757-8BDE6CBB5B96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1088,7 +1088,7 @@
   <dimension ref="B1:BO31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1483,10 +1483,10 @@
         <v>32</v>
       </c>
       <c r="C8" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D8" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E8" s="7">
         <v>0</v>

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\OneDrive\Documenten\GitHub\OWFSim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951B728A-59A7-4146-8757-8BDE6CBB5B96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3360DA6-5714-456D-B95A-6F99D85BC931}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1088,7 +1088,7 @@
   <dimension ref="B1:BO31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1122,7 +1122,7 @@
         <v>17</v>
       </c>
       <c r="H2" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="34" t="s">
@@ -1412,10 +1412,10 @@
         <v>1</v>
       </c>
       <c r="F5" s="22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G5" s="23">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H5" s="24"/>
       <c r="I5" s="24"/>
@@ -1469,13 +1469,13 @@
         <v>2</v>
       </c>
       <c r="E7" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="8">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1512,7 +1512,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G9" s="23">
         <v>0.3</v>
@@ -1552,10 +1552,10 @@
         <v>2</v>
       </c>
       <c r="F10" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G10" s="8">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1572,10 +1572,10 @@
         <v>4</v>
       </c>
       <c r="F11" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" s="8">
-        <v>0.3</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\OneDrive\Documenten\GitHub\OWFSim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3360DA6-5714-456D-B95A-6F99D85BC931}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5508E3-03C2-4CAE-93FC-1F8D06865E70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1088,7 +1088,7 @@
   <dimension ref="B1:BO31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1122,7 +1122,7 @@
         <v>17</v>
       </c>
       <c r="H2" s="14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="34" t="s">
@@ -1412,10 +1412,10 @@
         <v>1</v>
       </c>
       <c r="F5" s="22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G5" s="23">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H5" s="24"/>
       <c r="I5" s="24"/>
@@ -1472,10 +1472,10 @@
         <v>5</v>
       </c>
       <c r="F7" s="7">
+        <v>2</v>
+      </c>
+      <c r="G7" s="8">
         <v>1</v>
-      </c>
-      <c r="G7" s="8">
-        <v>0.4</v>
       </c>
     </row>
     <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1489,13 +1489,13 @@
         <v>6</v>
       </c>
       <c r="E8" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="8">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="9" spans="2:67" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1512,10 +1512,10 @@
         <v>2</v>
       </c>
       <c r="F9" s="22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G9" s="23">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
@@ -1572,7 +1572,7 @@
         <v>4</v>
       </c>
       <c r="F11" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11" s="8">
         <v>0.75</v>
@@ -1589,13 +1589,13 @@
         <v>4</v>
       </c>
       <c r="E12" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F12" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="8">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="13" spans="2:67" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\OneDrive\Documenten\GitHub\OWFSim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5508E3-03C2-4CAE-93FC-1F8D06865E70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0064A19C-B92F-4AE3-B8E5-04F05C668531}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1088,7 +1088,7 @@
   <dimension ref="B1:BO31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1122,7 +1122,7 @@
         <v>17</v>
       </c>
       <c r="H2" s="14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="34" t="s">
@@ -1412,10 +1412,10 @@
         <v>1</v>
       </c>
       <c r="F5" s="22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G5" s="23">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H5" s="24"/>
       <c r="I5" s="24"/>
@@ -1492,10 +1492,10 @@
         <v>6</v>
       </c>
       <c r="F8" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" s="8">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="2:67" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1512,10 +1512,10 @@
         <v>2</v>
       </c>
       <c r="F9" s="22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G9" s="23">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
@@ -1572,7 +1572,7 @@
         <v>4</v>
       </c>
       <c r="F11" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G11" s="8">
         <v>0.75</v>
@@ -1592,10 +1592,10 @@
         <v>6</v>
       </c>
       <c r="F12" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" s="8">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="13" spans="2:67" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\OneDrive\Documenten\GitHub\OWFSim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0064A19C-B92F-4AE3-B8E5-04F05C668531}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4CDFA5-2C5F-4AFD-8781-EFA497B73656}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1122,7 +1122,7 @@
         <v>17</v>
       </c>
       <c r="H2" s="14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="34" t="s">
@@ -1412,10 +1412,10 @@
         <v>1</v>
       </c>
       <c r="F5" s="22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G5" s="23">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="H5" s="24"/>
       <c r="I5" s="24"/>
@@ -1492,10 +1492,10 @@
         <v>6</v>
       </c>
       <c r="F8" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8" s="8">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="9" spans="2:67" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1512,10 +1512,10 @@
         <v>2</v>
       </c>
       <c r="F9" s="22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G9" s="23">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
@@ -1592,10 +1592,10 @@
         <v>6</v>
       </c>
       <c r="F12" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G12" s="8">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="2:67" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\OneDrive\Documenten\GitHub\OWFSim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4CDFA5-2C5F-4AFD-8781-EFA497B73656}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B01FCE-74A5-479F-9FFA-F5A2502C9F2F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1088,7 +1088,7 @@
   <dimension ref="B1:BO31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1122,7 +1122,7 @@
         <v>17</v>
       </c>
       <c r="H2" s="14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="34" t="s">
@@ -1412,7 +1412,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="22">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G5" s="23">
         <v>0.85</v>
@@ -1492,10 +1492,10 @@
         <v>6</v>
       </c>
       <c r="F8" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8" s="8">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="9" spans="2:67" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1512,10 +1512,10 @@
         <v>2</v>
       </c>
       <c r="F9" s="22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G9" s="23">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
@@ -1572,10 +1572,10 @@
         <v>4</v>
       </c>
       <c r="F11" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G11" s="8">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1592,10 +1592,10 @@
         <v>6</v>
       </c>
       <c r="F12" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G12" s="8">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="13" spans="2:67" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\OneDrive\Documenten\GitHub\OWFSim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B01FCE-74A5-479F-9FFA-F5A2502C9F2F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63F7B7A-AD58-4DC1-910B-666889B633D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1122,7 +1122,7 @@
         <v>17</v>
       </c>
       <c r="H2" s="14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="34" t="s">
@@ -1512,10 +1512,10 @@
         <v>2</v>
       </c>
       <c r="F9" s="22">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G9" s="23">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
@@ -1572,10 +1572,10 @@
         <v>4</v>
       </c>
       <c r="F11" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G11" s="8">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1592,10 +1592,10 @@
         <v>6</v>
       </c>
       <c r="F12" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G12" s="8">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="13" spans="2:67" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\OneDrive\Documenten\GitHub\OWFSim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63F7B7A-AD58-4DC1-910B-666889B633D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB86BD61-D8BE-4EAF-B2AA-6C2D2C82529B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1088,7 +1088,7 @@
   <dimension ref="B1:BO31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1609,13 +1609,13 @@
         <v>10</v>
       </c>
       <c r="E13" s="22">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F13" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="23">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
@@ -1649,13 +1649,13 @@
         <v>3</v>
       </c>
       <c r="E14" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="8">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\OneDrive\Documenten\GitHub\OWFSim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB86BD61-D8BE-4EAF-B2AA-6C2D2C82529B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9601A6-590D-4E84-A812-9A161BD352F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1088,7 +1088,7 @@
   <dimension ref="B1:BO31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1122,7 +1122,7 @@
         <v>17</v>
       </c>
       <c r="H2" s="14">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="34" t="s">
@@ -1412,7 +1412,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="22">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G5" s="23">
         <v>0.85</v>
@@ -1492,7 +1492,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G8" s="8">
         <v>0.8</v>
@@ -1512,7 +1512,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="22">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G9" s="23">
         <v>0.85</v>
@@ -1592,10 +1592,10 @@
         <v>6</v>
       </c>
       <c r="F12" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G12" s="8">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="13" spans="2:67" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\OneDrive\Documenten\GitHub\OWFSim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9601A6-590D-4E84-A812-9A161BD352F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D961C41-FBDA-4596-B6D9-8ABB4FAAE784}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1088,7 +1088,7 @@
   <dimension ref="B1:BO31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1122,7 +1122,7 @@
         <v>17</v>
       </c>
       <c r="H2" s="14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="34" t="s">
@@ -1512,7 +1512,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="22">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G9" s="23">
         <v>0.85</v>
@@ -1572,7 +1572,7 @@
         <v>4</v>
       </c>
       <c r="F11" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G11" s="8">
         <v>0.9</v>
@@ -1592,7 +1592,7 @@
         <v>6</v>
       </c>
       <c r="F12" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G12" s="8">
         <v>0.85</v>

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\OneDrive\Documenten\GitHub\OWFSim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D961C41-FBDA-4596-B6D9-8ABB4FAAE784}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BD7D0A-62EF-434E-9F06-7EE490E08519}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1088,7 +1088,7 @@
   <dimension ref="B1:BO31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1122,7 +1122,7 @@
         <v>17</v>
       </c>
       <c r="H2" s="14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="34" t="s">
@@ -1512,7 +1512,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="22">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G9" s="23">
         <v>0.85</v>
@@ -1572,7 +1572,7 @@
         <v>4</v>
       </c>
       <c r="F11" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G11" s="8">
         <v>0.9</v>
@@ -1592,7 +1592,7 @@
         <v>6</v>
       </c>
       <c r="F12" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G12" s="8">
         <v>0.85</v>

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\OneDrive\Documenten\GitHub\OWFSim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BD7D0A-62EF-434E-9F06-7EE490E08519}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5FEF2A-EBE8-41CB-B952-B6DC8EA352CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1088,7 +1088,7 @@
   <dimension ref="B1:BO31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1122,7 +1122,7 @@
         <v>17</v>
       </c>
       <c r="H2" s="14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="34" t="s">
@@ -1512,7 +1512,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="22">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" s="23">
         <v>0.85</v>
@@ -1572,10 +1572,10 @@
         <v>4</v>
       </c>
       <c r="F11" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G11" s="8">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1592,10 +1592,10 @@
         <v>6</v>
       </c>
       <c r="F12" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G12" s="8">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="13" spans="2:67" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\OneDrive\Documenten\GitHub\OWFSim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271CFB1F-A4E1-4309-9E01-1F7600E153E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124B5947-6E16-4F55-A836-2A2F52D65C4F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Project Planner</t>
   </si>
@@ -46,39 +46,6 @@
   </si>
   <si>
     <t>ACTIVITY</t>
-  </si>
-  <si>
-    <t>Activity 16</t>
-  </si>
-  <si>
-    <t>Activity 17</t>
-  </si>
-  <si>
-    <t>Activity 18</t>
-  </si>
-  <si>
-    <t>Activity 19</t>
-  </si>
-  <si>
-    <t>Activity 20</t>
-  </si>
-  <si>
-    <t>Activity 21</t>
-  </si>
-  <si>
-    <t>Activity 22</t>
-  </si>
-  <si>
-    <t>Activity 23</t>
-  </si>
-  <si>
-    <t>Activity 24</t>
-  </si>
-  <si>
-    <t>Activity 25</t>
-  </si>
-  <si>
-    <t>Activity 26</t>
   </si>
   <si>
     <r>
@@ -189,56 +156,41 @@
     <t>Select a period to highlight at right.  A legend describing the charting follows.</t>
   </si>
   <si>
-    <t>Model design</t>
-  </si>
-  <si>
     <t>Implementation</t>
   </si>
   <si>
-    <t>Experiments</t>
-  </si>
-  <si>
     <t>Writing</t>
   </si>
   <si>
     <t>Analysis</t>
   </si>
   <si>
-    <t>Initial</t>
-  </si>
-  <si>
-    <t>Sophistication</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>Improvement</t>
-  </si>
-  <si>
-    <t>Test case development</t>
-  </si>
-  <si>
-    <t>Run tests</t>
-  </si>
-  <si>
-    <t>Improve tests</t>
-  </si>
-  <si>
-    <t>Thesis chapter</t>
-  </si>
-  <si>
     <t>Paper</t>
   </si>
   <si>
-    <t>Bugfixing</t>
+    <t>Improvements</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Testcase</t>
+  </si>
+  <si>
+    <t>Creation</t>
+  </si>
+  <si>
+    <t>Running</t>
+  </si>
+  <si>
+    <t>Thesis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -343,21 +295,42 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="12"/>
-      <color theme="1" tint="0.24994659260841701"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1" tint="0.24994659260841701"/>
+      <color rgb="FFFF0000"/>
       <name val="Corbel"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -402,6 +375,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,7 +528,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -568,15 +547,6 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="7">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -613,19 +583,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="11">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="8" borderId="0" xfId="6" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
@@ -675,6 +636,63 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="9" borderId="0" xfId="6" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1085,138 +1103,138 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:BO31"/>
+  <dimension ref="A1:BO31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.25" style="2" customWidth="1"/>
     <col min="3" max="6" width="11.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.625" style="4" customWidth="1"/>
     <col min="8" max="27" width="2.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
-      <c r="B1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-    </row>
-    <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
+    <row r="1" spans="1:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
+      <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" spans="1:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
       <c r="G2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="14">
-        <v>15</v>
-      </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="40"/>
-      <c r="AD2" s="40"/>
-      <c r="AE2" s="40"/>
-      <c r="AF2" s="40"/>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="19"/>
-      <c r="AI2" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ2" s="27"/>
-      <c r="AK2" s="27"/>
-      <c r="AL2" s="27"/>
-      <c r="AM2" s="27"/>
-      <c r="AN2" s="27"/>
-      <c r="AO2" s="27"/>
-      <c r="AP2" s="27"/>
-    </row>
-    <row r="3" spans="2:67" s="11" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="11">
+        <v>1</v>
+      </c>
+      <c r="J2" s="12"/>
+      <c r="K2" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="35"/>
+      <c r="AH2" s="16"/>
+      <c r="AI2" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ2" s="21"/>
+      <c r="AK2" s="21"/>
+      <c r="AL2" s="21"/>
+      <c r="AM2" s="21"/>
+      <c r="AN2" s="21"/>
+      <c r="AO2" s="21"/>
+      <c r="AP2" s="21"/>
+    </row>
+    <row r="3" spans="1:67" s="8" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="20" t="s">
+      <c r="C3" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-    </row>
-    <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="30"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+    </row>
+    <row r="4" spans="1:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="24"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -1398,645 +1416,788 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="2:67" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="22">
+    <row r="5" spans="1:67" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="43">
         <v>1</v>
       </c>
-      <c r="D5" s="22">
-        <v>12</v>
-      </c>
-      <c r="E5" s="22">
+      <c r="D5" s="43">
+        <v>2</v>
+      </c>
+      <c r="E5" s="43">
+        <v>0</v>
+      </c>
+      <c r="F5" s="43">
+        <v>0</v>
+      </c>
+      <c r="G5" s="44">
+        <v>0</v>
+      </c>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="45"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="45"/>
+      <c r="Y5" s="45"/>
+      <c r="Z5" s="45"/>
+      <c r="AA5" s="45"/>
+    </row>
+    <row r="6" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="40"/>
+      <c r="B6" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="38">
         <v>1</v>
       </c>
-      <c r="F5" s="22">
-        <v>11</v>
-      </c>
-      <c r="G5" s="23">
-        <v>0.85</v>
-      </c>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
-      <c r="W5" s="24"/>
-      <c r="X5" s="24"/>
-      <c r="Y5" s="24"/>
-      <c r="Z5" s="24"/>
-      <c r="AA5" s="24"/>
-    </row>
-    <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="7">
+      <c r="D6" s="38">
         <v>1</v>
       </c>
-      <c r="D6" s="7">
+      <c r="E6" s="38">
+        <v>0</v>
+      </c>
+      <c r="F6" s="38">
+        <v>0</v>
+      </c>
+      <c r="G6" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="40"/>
+      <c r="B7" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="38">
+        <v>2</v>
+      </c>
+      <c r="D7" s="38">
+        <v>1</v>
+      </c>
+      <c r="E7" s="38">
+        <v>0</v>
+      </c>
+      <c r="F7" s="38">
+        <v>0</v>
+      </c>
+      <c r="G7" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:67" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="43">
+        <v>2</v>
+      </c>
+      <c r="D8" s="43">
+        <v>4</v>
+      </c>
+      <c r="E8" s="43">
+        <v>0</v>
+      </c>
+      <c r="F8" s="43">
+        <v>0</v>
+      </c>
+      <c r="G8" s="44">
+        <v>0</v>
+      </c>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="47"/>
+      <c r="T8" s="47"/>
+      <c r="U8" s="47"/>
+      <c r="V8" s="47"/>
+      <c r="W8" s="47"/>
+      <c r="X8" s="47"/>
+      <c r="Y8" s="47"/>
+      <c r="Z8" s="47"/>
+      <c r="AA8" s="47"/>
+    </row>
+    <row r="9" spans="1:67" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="36"/>
+      <c r="B9" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="38">
+        <v>2</v>
+      </c>
+      <c r="D9" s="38">
+        <v>2</v>
+      </c>
+      <c r="E9" s="38">
+        <v>0</v>
+      </c>
+      <c r="F9" s="38">
+        <v>0</v>
+      </c>
+      <c r="G9" s="39">
+        <v>0</v>
+      </c>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="18"/>
+      <c r="Y9" s="18"/>
+      <c r="Z9" s="18"/>
+      <c r="AA9" s="18"/>
+    </row>
+    <row r="10" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="40"/>
+      <c r="B10" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="38">
         <v>3</v>
       </c>
-      <c r="E6" s="7">
-        <v>1</v>
-      </c>
-      <c r="F6" s="7">
-        <v>1</v>
-      </c>
-      <c r="G6" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="7">
+      <c r="D10" s="38">
+        <v>2</v>
+      </c>
+      <c r="E10" s="38">
+        <v>0</v>
+      </c>
+      <c r="F10" s="38">
+        <v>0</v>
+      </c>
+      <c r="G10" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="40"/>
+      <c r="B11" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="38">
+        <v>4</v>
+      </c>
+      <c r="D11" s="38">
+        <v>2</v>
+      </c>
+      <c r="E11" s="38">
+        <v>0</v>
+      </c>
+      <c r="F11" s="38">
+        <v>0</v>
+      </c>
+      <c r="G11" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:67" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="43">
+        <v>4</v>
+      </c>
+      <c r="D12" s="43">
         <v>5</v>
       </c>
-      <c r="D7" s="7">
+      <c r="E12" s="43">
+        <v>0</v>
+      </c>
+      <c r="F12" s="43">
+        <v>0</v>
+      </c>
+      <c r="G12" s="44">
+        <v>0</v>
+      </c>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="47"/>
+      <c r="S12" s="47"/>
+      <c r="T12" s="47"/>
+      <c r="U12" s="47"/>
+      <c r="V12" s="47"/>
+      <c r="W12" s="47"/>
+      <c r="X12" s="47"/>
+      <c r="Y12" s="47"/>
+      <c r="Z12" s="47"/>
+      <c r="AA12" s="47"/>
+    </row>
+    <row r="13" spans="1:67" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="36"/>
+      <c r="B13" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="38">
+        <v>4</v>
+      </c>
+      <c r="D13" s="38">
+        <v>4</v>
+      </c>
+      <c r="E13" s="38">
+        <v>0</v>
+      </c>
+      <c r="F13" s="38">
+        <v>0</v>
+      </c>
+      <c r="G13" s="39">
+        <v>0</v>
+      </c>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="18"/>
+      <c r="X13" s="18"/>
+      <c r="Y13" s="18"/>
+      <c r="Z13" s="18"/>
+      <c r="AA13" s="18"/>
+    </row>
+    <row r="14" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="40"/>
+      <c r="B14" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="38">
+        <v>7</v>
+      </c>
+      <c r="D14" s="38">
         <v>2</v>
       </c>
-      <c r="E7" s="7">
-        <v>5</v>
-      </c>
-      <c r="F7" s="7">
-        <v>2</v>
-      </c>
-      <c r="G7" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="7">
-        <v>7</v>
-      </c>
-      <c r="D8" s="7">
-        <v>6</v>
-      </c>
-      <c r="E8" s="7">
-        <v>6</v>
-      </c>
-      <c r="F8" s="7">
-        <v>6</v>
-      </c>
-      <c r="G8" s="8">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="9" spans="2:67" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="22">
-        <v>4</v>
-      </c>
-      <c r="D9" s="22">
-        <v>9</v>
-      </c>
-      <c r="E9" s="22">
-        <v>2</v>
-      </c>
-      <c r="F9" s="22">
-        <v>14</v>
-      </c>
-      <c r="G9" s="23">
-        <v>0.85</v>
-      </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="24"/>
-      <c r="W9" s="24"/>
-      <c r="X9" s="24"/>
-      <c r="Y9" s="24"/>
-      <c r="Z9" s="24"/>
-      <c r="AA9" s="24"/>
-    </row>
-    <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="7">
-        <v>4</v>
-      </c>
-      <c r="D10" s="7">
-        <v>2</v>
-      </c>
-      <c r="E10" s="7">
-        <v>2</v>
-      </c>
-      <c r="F10" s="7">
-        <v>4</v>
-      </c>
-      <c r="G10" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="7">
-        <v>5</v>
-      </c>
-      <c r="D11" s="7">
-        <v>2</v>
-      </c>
-      <c r="E11" s="7">
-        <v>4</v>
-      </c>
-      <c r="F11" s="7">
-        <v>10</v>
-      </c>
-      <c r="G11" s="8">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="7">
-        <v>9</v>
-      </c>
-      <c r="D12" s="7">
-        <v>4</v>
-      </c>
-      <c r="E12" s="7">
-        <v>6</v>
-      </c>
-      <c r="F12" s="7">
-        <v>9</v>
-      </c>
-      <c r="G12" s="8">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="13" spans="2:67" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="22">
-        <v>7</v>
-      </c>
-      <c r="D13" s="22">
-        <v>10</v>
-      </c>
-      <c r="E13" s="22">
-        <v>10</v>
-      </c>
-      <c r="F13" s="22">
-        <v>1</v>
-      </c>
-      <c r="G13" s="23">
-        <v>0.05</v>
-      </c>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="24"/>
-      <c r="Z13" s="24"/>
-      <c r="AA13" s="24"/>
-    </row>
-    <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="7">
-        <v>7</v>
-      </c>
-      <c r="D14" s="7">
-        <v>3</v>
-      </c>
-      <c r="E14" s="7">
-        <v>10</v>
-      </c>
-      <c r="F14" s="7">
-        <v>1</v>
-      </c>
-      <c r="G14" s="8">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="7">
-        <v>9</v>
-      </c>
-      <c r="D15" s="7">
-        <v>3</v>
-      </c>
-      <c r="E15" s="7">
-        <v>0</v>
-      </c>
-      <c r="F15" s="7">
-        <v>0</v>
-      </c>
-      <c r="G15" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="7">
-        <v>10</v>
-      </c>
-      <c r="D16" s="7">
-        <v>2</v>
-      </c>
-      <c r="E16" s="7">
-        <v>0</v>
-      </c>
-      <c r="F16" s="7">
-        <v>0</v>
-      </c>
-      <c r="G16" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:27" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="22">
-        <v>10</v>
-      </c>
-      <c r="D17" s="22">
-        <v>4</v>
-      </c>
-      <c r="E17" s="22">
-        <v>0</v>
-      </c>
-      <c r="F17" s="22">
-        <v>0</v>
-      </c>
-      <c r="G17" s="23">
-        <v>0</v>
-      </c>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="24"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="24"/>
-      <c r="W17" s="24"/>
-      <c r="X17" s="24"/>
-      <c r="Y17" s="24"/>
-      <c r="Z17" s="24"/>
-      <c r="AA17" s="24"/>
-    </row>
-    <row r="18" spans="2:27" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="22">
-        <v>12</v>
-      </c>
-      <c r="D18" s="22">
-        <v>8</v>
-      </c>
-      <c r="E18" s="22">
-        <v>0</v>
-      </c>
-      <c r="F18" s="22">
-        <v>0</v>
-      </c>
-      <c r="G18" s="23">
-        <v>0</v>
-      </c>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="24"/>
-      <c r="U18" s="24"/>
-      <c r="V18" s="24"/>
-      <c r="W18" s="24"/>
-      <c r="X18" s="24"/>
-      <c r="Y18" s="24"/>
-      <c r="Z18" s="24"/>
-      <c r="AA18" s="24"/>
-    </row>
-    <row r="19" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="7">
-        <v>12</v>
-      </c>
-      <c r="D19" s="7">
-        <v>4</v>
-      </c>
-      <c r="E19" s="7">
-        <v>0</v>
-      </c>
-      <c r="F19" s="7">
-        <v>0</v>
-      </c>
-      <c r="G19" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="7">
-        <v>16</v>
-      </c>
-      <c r="D20" s="7">
-        <v>4</v>
-      </c>
-      <c r="E20" s="7">
-        <v>0</v>
-      </c>
-      <c r="F20" s="7">
-        <v>0</v>
-      </c>
-      <c r="G20" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>0</v>
-      </c>
-      <c r="D21" s="7">
-        <v>0</v>
-      </c>
-      <c r="E21" s="7">
-        <v>0</v>
-      </c>
-      <c r="F21" s="7">
-        <v>0</v>
-      </c>
-      <c r="G21" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="7">
-        <v>0</v>
-      </c>
-      <c r="D22" s="7">
-        <v>0</v>
-      </c>
-      <c r="E22" s="7">
-        <v>0</v>
-      </c>
-      <c r="F22" s="7">
-        <v>0</v>
-      </c>
-      <c r="G22" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="7">
-        <v>0</v>
-      </c>
-      <c r="D23" s="7">
-        <v>0</v>
-      </c>
-      <c r="E23" s="7">
-        <v>0</v>
-      </c>
-      <c r="F23" s="7">
-        <v>0</v>
-      </c>
-      <c r="G23" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="7">
-        <v>0</v>
-      </c>
-      <c r="D24" s="7">
-        <v>0</v>
-      </c>
-      <c r="E24" s="7">
-        <v>0</v>
-      </c>
-      <c r="F24" s="7">
-        <v>0</v>
-      </c>
-      <c r="G24" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="7">
-        <v>0</v>
-      </c>
-      <c r="D25" s="7">
-        <v>0</v>
-      </c>
-      <c r="E25" s="7">
-        <v>0</v>
-      </c>
-      <c r="F25" s="7">
-        <v>0</v>
-      </c>
-      <c r="G25" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="7">
-        <v>0</v>
-      </c>
-      <c r="D26" s="7">
-        <v>0</v>
-      </c>
-      <c r="E26" s="7">
-        <v>0</v>
-      </c>
-      <c r="F26" s="7">
-        <v>0</v>
-      </c>
-      <c r="G26" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="7">
-        <v>0</v>
-      </c>
-      <c r="D27" s="7">
-        <v>0</v>
-      </c>
-      <c r="E27" s="7">
-        <v>0</v>
-      </c>
-      <c r="F27" s="7">
-        <v>0</v>
-      </c>
-      <c r="G27" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="7">
-        <v>0</v>
-      </c>
-      <c r="D28" s="7">
-        <v>0</v>
-      </c>
-      <c r="E28" s="7">
-        <v>0</v>
-      </c>
-      <c r="F28" s="7">
-        <v>0</v>
-      </c>
-      <c r="G28" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="7">
-        <v>0</v>
-      </c>
-      <c r="D29" s="7">
-        <v>0</v>
-      </c>
-      <c r="E29" s="7">
-        <v>0</v>
-      </c>
-      <c r="F29" s="7">
-        <v>0</v>
-      </c>
-      <c r="G29" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="7">
-        <v>0</v>
-      </c>
-      <c r="D30" s="7">
-        <v>0</v>
-      </c>
-      <c r="E30" s="7">
-        <v>0</v>
-      </c>
-      <c r="F30" s="7">
-        <v>0</v>
-      </c>
-      <c r="G30" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="7">
-        <v>0</v>
-      </c>
-      <c r="D31" s="7">
-        <v>0</v>
-      </c>
-      <c r="E31" s="7">
-        <v>0</v>
-      </c>
-      <c r="F31" s="7">
-        <v>0</v>
-      </c>
-      <c r="G31" s="8">
-        <v>0</v>
-      </c>
+      <c r="E14" s="38">
+        <v>0</v>
+      </c>
+      <c r="F14" s="38">
+        <v>0</v>
+      </c>
+      <c r="G14" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:67" s="48" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="49"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="53"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="53"/>
+      <c r="T15" s="53"/>
+      <c r="U15" s="53"/>
+      <c r="V15" s="53"/>
+      <c r="W15" s="53"/>
+      <c r="X15" s="53"/>
+      <c r="Y15" s="53"/>
+      <c r="Z15" s="53"/>
+      <c r="AA15" s="53"/>
+    </row>
+    <row r="16" spans="1:67" s="48" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="49"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="53"/>
+      <c r="R16" s="53"/>
+      <c r="S16" s="53"/>
+      <c r="T16" s="53"/>
+      <c r="U16" s="53"/>
+      <c r="V16" s="53"/>
+      <c r="W16" s="53"/>
+      <c r="X16" s="53"/>
+      <c r="Y16" s="53"/>
+      <c r="Z16" s="53"/>
+      <c r="AA16" s="53"/>
+    </row>
+    <row r="17" spans="2:27" s="52" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="49"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="54"/>
+      <c r="S17" s="54"/>
+      <c r="T17" s="54"/>
+      <c r="U17" s="54"/>
+      <c r="V17" s="54"/>
+      <c r="W17" s="54"/>
+      <c r="X17" s="54"/>
+      <c r="Y17" s="54"/>
+      <c r="Z17" s="54"/>
+      <c r="AA17" s="54"/>
+    </row>
+    <row r="18" spans="2:27" s="52" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="49"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="54"/>
+      <c r="R18" s="54"/>
+      <c r="S18" s="54"/>
+      <c r="T18" s="54"/>
+      <c r="U18" s="54"/>
+      <c r="V18" s="54"/>
+      <c r="W18" s="54"/>
+      <c r="X18" s="54"/>
+      <c r="Y18" s="54"/>
+      <c r="Z18" s="54"/>
+      <c r="AA18" s="54"/>
+    </row>
+    <row r="19" spans="2:27" s="48" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="49"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="53"/>
+      <c r="Q19" s="53"/>
+      <c r="R19" s="53"/>
+      <c r="S19" s="53"/>
+      <c r="T19" s="53"/>
+      <c r="U19" s="53"/>
+      <c r="V19" s="53"/>
+      <c r="W19" s="53"/>
+      <c r="X19" s="53"/>
+      <c r="Y19" s="53"/>
+      <c r="Z19" s="53"/>
+      <c r="AA19" s="53"/>
+    </row>
+    <row r="20" spans="2:27" s="48" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="49"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="53"/>
+      <c r="Q20" s="53"/>
+      <c r="R20" s="53"/>
+      <c r="S20" s="53"/>
+      <c r="T20" s="53"/>
+      <c r="U20" s="53"/>
+      <c r="V20" s="53"/>
+      <c r="W20" s="53"/>
+      <c r="X20" s="53"/>
+      <c r="Y20" s="53"/>
+      <c r="Z20" s="53"/>
+      <c r="AA20" s="53"/>
+    </row>
+    <row r="21" spans="2:27" s="48" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="49"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="53"/>
+      <c r="Q21" s="53"/>
+      <c r="R21" s="53"/>
+      <c r="S21" s="53"/>
+      <c r="T21" s="53"/>
+      <c r="U21" s="53"/>
+      <c r="V21" s="53"/>
+      <c r="W21" s="53"/>
+      <c r="X21" s="53"/>
+      <c r="Y21" s="53"/>
+      <c r="Z21" s="53"/>
+      <c r="AA21" s="53"/>
+    </row>
+    <row r="22" spans="2:27" s="48" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="49"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="53"/>
+      <c r="Q22" s="53"/>
+      <c r="R22" s="53"/>
+      <c r="S22" s="53"/>
+      <c r="T22" s="53"/>
+      <c r="U22" s="53"/>
+      <c r="V22" s="53"/>
+      <c r="W22" s="53"/>
+      <c r="X22" s="53"/>
+      <c r="Y22" s="53"/>
+      <c r="Z22" s="53"/>
+      <c r="AA22" s="53"/>
+    </row>
+    <row r="23" spans="2:27" s="48" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="49"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="53"/>
+      <c r="Q23" s="53"/>
+      <c r="R23" s="53"/>
+      <c r="S23" s="53"/>
+      <c r="T23" s="53"/>
+      <c r="U23" s="53"/>
+      <c r="V23" s="53"/>
+      <c r="W23" s="53"/>
+      <c r="X23" s="53"/>
+      <c r="Y23" s="53"/>
+      <c r="Z23" s="53"/>
+      <c r="AA23" s="53"/>
+    </row>
+    <row r="24" spans="2:27" s="48" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="49"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="53"/>
+      <c r="Q24" s="53"/>
+      <c r="R24" s="53"/>
+      <c r="S24" s="53"/>
+      <c r="T24" s="53"/>
+      <c r="U24" s="53"/>
+      <c r="V24" s="53"/>
+      <c r="W24" s="53"/>
+      <c r="X24" s="53"/>
+      <c r="Y24" s="53"/>
+      <c r="Z24" s="53"/>
+      <c r="AA24" s="53"/>
+    </row>
+    <row r="25" spans="2:27" s="48" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="49"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="53"/>
+      <c r="Q25" s="53"/>
+      <c r="R25" s="53"/>
+      <c r="S25" s="53"/>
+      <c r="T25" s="53"/>
+      <c r="U25" s="53"/>
+      <c r="V25" s="53"/>
+      <c r="W25" s="53"/>
+      <c r="X25" s="53"/>
+      <c r="Y25" s="53"/>
+      <c r="Z25" s="53"/>
+      <c r="AA25" s="53"/>
+    </row>
+    <row r="26" spans="2:27" s="48" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="49"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="53"/>
+      <c r="R26" s="53"/>
+      <c r="S26" s="53"/>
+      <c r="T26" s="53"/>
+      <c r="U26" s="53"/>
+      <c r="V26" s="53"/>
+      <c r="W26" s="53"/>
+      <c r="X26" s="53"/>
+      <c r="Y26" s="53"/>
+      <c r="Z26" s="53"/>
+      <c r="AA26" s="53"/>
+    </row>
+    <row r="27" spans="2:27" s="48" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="49"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="53"/>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="53"/>
+      <c r="T27" s="53"/>
+      <c r="U27" s="53"/>
+      <c r="V27" s="53"/>
+      <c r="W27" s="53"/>
+      <c r="X27" s="53"/>
+      <c r="Y27" s="53"/>
+      <c r="Z27" s="53"/>
+      <c r="AA27" s="53"/>
+    </row>
+    <row r="28" spans="2:27" s="48" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="49"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="53"/>
+      <c r="P28" s="53"/>
+      <c r="Q28" s="53"/>
+      <c r="R28" s="53"/>
+      <c r="S28" s="53"/>
+      <c r="T28" s="53"/>
+      <c r="U28" s="53"/>
+      <c r="V28" s="53"/>
+      <c r="W28" s="53"/>
+      <c r="X28" s="53"/>
+      <c r="Y28" s="53"/>
+      <c r="Z28" s="53"/>
+      <c r="AA28" s="53"/>
+    </row>
+    <row r="29" spans="2:27" s="48" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="49"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="53"/>
+      <c r="P29" s="53"/>
+      <c r="Q29" s="53"/>
+      <c r="R29" s="53"/>
+      <c r="S29" s="53"/>
+      <c r="T29" s="53"/>
+      <c r="U29" s="53"/>
+      <c r="V29" s="53"/>
+      <c r="W29" s="53"/>
+      <c r="X29" s="53"/>
+      <c r="Y29" s="53"/>
+      <c r="Z29" s="53"/>
+      <c r="AA29" s="53"/>
+    </row>
+    <row r="30" spans="2:27" s="48" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="49"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="53"/>
+      <c r="P30" s="53"/>
+      <c r="Q30" s="53"/>
+      <c r="R30" s="53"/>
+      <c r="S30" s="53"/>
+      <c r="T30" s="53"/>
+      <c r="U30" s="53"/>
+      <c r="V30" s="53"/>
+      <c r="W30" s="53"/>
+      <c r="X30" s="53"/>
+      <c r="Y30" s="53"/>
+      <c r="Z30" s="53"/>
+      <c r="AA30" s="53"/>
+    </row>
+    <row r="31" spans="2:27" s="48" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="49"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="53"/>
+      <c r="P31" s="53"/>
+      <c r="Q31" s="53"/>
+      <c r="R31" s="53"/>
+      <c r="S31" s="53"/>
+      <c r="T31" s="53"/>
+      <c r="U31" s="53"/>
+      <c r="V31" s="53"/>
+      <c r="W31" s="53"/>
+      <c r="X31" s="53"/>
+      <c r="Y31" s="53"/>
+      <c r="Z31" s="53"/>
+      <c r="AA31" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\OneDrive\Documenten\GitHub\OWFSim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124B5947-6E16-4F55-A836-2A2F52D65C4F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3EEE7BB-C865-4AFE-8B4D-9196E79850F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -589,6 +589,63 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="9" borderId="0" xfId="6" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -636,63 +693,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="9" borderId="0" xfId="6" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1106,7 +1106,7 @@
   <dimension ref="A1:BO31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1129,13 +1129,13 @@
       <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
       <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
@@ -1143,66 +1143,66 @@
         <v>1</v>
       </c>
       <c r="J2" s="12"/>
-      <c r="K2" s="28" t="s">
+      <c r="K2" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="30"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="49"/>
       <c r="P2" s="13"/>
-      <c r="Q2" s="28" t="s">
+      <c r="Q2" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="30"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="49"/>
       <c r="U2" s="14"/>
-      <c r="V2" s="20" t="s">
+      <c r="V2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="32"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="51"/>
       <c r="Z2" s="15"/>
-      <c r="AA2" s="33" t="s">
+      <c r="AA2" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="35"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="54"/>
       <c r="AH2" s="16"/>
-      <c r="AI2" s="20" t="s">
+      <c r="AI2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AJ2" s="21"/>
-      <c r="AK2" s="21"/>
-      <c r="AL2" s="21"/>
-      <c r="AM2" s="21"/>
-      <c r="AN2" s="21"/>
-      <c r="AO2" s="21"/>
-      <c r="AP2" s="21"/>
+      <c r="AJ2" s="40"/>
+      <c r="AK2" s="40"/>
+      <c r="AL2" s="40"/>
+      <c r="AM2" s="40"/>
+      <c r="AN2" s="40"/>
+      <c r="AO2" s="40"/>
+      <c r="AP2" s="40"/>
     </row>
     <row r="3" spans="1:67" s="8" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="46" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="17" t="s">
@@ -1229,12 +1229,12 @@
       <c r="AA3" s="7"/>
     </row>
     <row r="4" spans="1:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="24"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -1416,146 +1416,146 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:67" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="42" t="s">
+    <row r="5" spans="1:67" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="43">
+      <c r="C5" s="27">
         <v>1</v>
       </c>
-      <c r="D5" s="43">
+      <c r="D5" s="27">
         <v>2</v>
       </c>
-      <c r="E5" s="43">
-        <v>0</v>
-      </c>
-      <c r="F5" s="43">
-        <v>0</v>
-      </c>
-      <c r="G5" s="44">
-        <v>0</v>
-      </c>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="45"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="45"/>
-      <c r="Z5" s="45"/>
-      <c r="AA5" s="45"/>
+      <c r="E5" s="27">
+        <v>1</v>
+      </c>
+      <c r="F5" s="27">
+        <v>1</v>
+      </c>
+      <c r="G5" s="28">
+        <v>0.2</v>
+      </c>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="29"/>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="29"/>
+      <c r="AA5" s="29"/>
     </row>
     <row r="6" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="40"/>
-      <c r="B6" s="37" t="s">
+      <c r="A6" s="24"/>
+      <c r="B6" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6" s="22">
         <v>1</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="22">
         <v>1</v>
       </c>
-      <c r="E6" s="38">
-        <v>0</v>
-      </c>
-      <c r="F6" s="38">
-        <v>0</v>
-      </c>
-      <c r="G6" s="39">
-        <v>0</v>
+      <c r="E6" s="22">
+        <v>1</v>
+      </c>
+      <c r="F6" s="22">
+        <v>1</v>
+      </c>
+      <c r="G6" s="23">
+        <v>0.4</v>
       </c>
     </row>
     <row r="7" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="40"/>
-      <c r="B7" s="37" t="s">
+      <c r="A7" s="24"/>
+      <c r="B7" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C7" s="22">
         <v>2</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="22">
         <v>1</v>
       </c>
-      <c r="E7" s="38">
-        <v>0</v>
-      </c>
-      <c r="F7" s="38">
-        <v>0</v>
-      </c>
-      <c r="G7" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:67" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="42" t="s">
+      <c r="E7" s="22">
+        <v>0</v>
+      </c>
+      <c r="F7" s="22">
+        <v>0</v>
+      </c>
+      <c r="G7" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:67" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="43">
+      <c r="C8" s="27">
         <v>2</v>
       </c>
-      <c r="D8" s="43">
+      <c r="D8" s="27">
         <v>4</v>
       </c>
-      <c r="E8" s="43">
-        <v>0</v>
-      </c>
-      <c r="F8" s="43">
-        <v>0</v>
-      </c>
-      <c r="G8" s="44">
-        <v>0</v>
-      </c>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="47"/>
-      <c r="V8" s="47"/>
-      <c r="W8" s="47"/>
-      <c r="X8" s="47"/>
-      <c r="Y8" s="47"/>
-      <c r="Z8" s="47"/>
-      <c r="AA8" s="47"/>
+      <c r="E8" s="27">
+        <v>0</v>
+      </c>
+      <c r="F8" s="27">
+        <v>0</v>
+      </c>
+      <c r="G8" s="28">
+        <v>0</v>
+      </c>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="31"/>
+      <c r="W8" s="31"/>
+      <c r="X8" s="31"/>
+      <c r="Y8" s="31"/>
+      <c r="Z8" s="31"/>
+      <c r="AA8" s="31"/>
     </row>
     <row r="9" spans="1:67" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="36"/>
-      <c r="B9" s="37" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="38">
+      <c r="C9" s="22">
         <v>2</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="22">
         <v>2</v>
       </c>
-      <c r="E9" s="38">
-        <v>0</v>
-      </c>
-      <c r="F9" s="38">
-        <v>0</v>
-      </c>
-      <c r="G9" s="39">
+      <c r="E9" s="22">
+        <v>0</v>
+      </c>
+      <c r="F9" s="22">
+        <v>0</v>
+      </c>
+      <c r="G9" s="23">
         <v>0</v>
       </c>
       <c r="H9" s="18"/>
@@ -1580,105 +1580,105 @@
       <c r="AA9" s="18"/>
     </row>
     <row r="10" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="40"/>
-      <c r="B10" s="37" t="s">
+      <c r="A10" s="24"/>
+      <c r="B10" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="22">
         <v>3</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="22">
         <v>2</v>
       </c>
-      <c r="E10" s="38">
-        <v>0</v>
-      </c>
-      <c r="F10" s="38">
-        <v>0</v>
-      </c>
-      <c r="G10" s="39">
+      <c r="E10" s="22">
+        <v>0</v>
+      </c>
+      <c r="F10" s="22">
+        <v>0</v>
+      </c>
+      <c r="G10" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="40"/>
-      <c r="B11" s="37" t="s">
+      <c r="A11" s="24"/>
+      <c r="B11" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="38">
+      <c r="C11" s="22">
         <v>4</v>
       </c>
-      <c r="D11" s="38">
+      <c r="D11" s="22">
         <v>2</v>
       </c>
-      <c r="E11" s="38">
-        <v>0</v>
-      </c>
-      <c r="F11" s="38">
-        <v>0</v>
-      </c>
-      <c r="G11" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:67" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="42" t="s">
+      <c r="E11" s="22">
+        <v>0</v>
+      </c>
+      <c r="F11" s="22">
+        <v>0</v>
+      </c>
+      <c r="G11" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:67" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="43">
+      <c r="C12" s="27">
         <v>4</v>
       </c>
-      <c r="D12" s="43">
+      <c r="D12" s="27">
         <v>5</v>
       </c>
-      <c r="E12" s="43">
-        <v>0</v>
-      </c>
-      <c r="F12" s="43">
-        <v>0</v>
-      </c>
-      <c r="G12" s="44">
-        <v>0</v>
-      </c>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="47"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="47"/>
-      <c r="R12" s="47"/>
-      <c r="S12" s="47"/>
-      <c r="T12" s="47"/>
-      <c r="U12" s="47"/>
-      <c r="V12" s="47"/>
-      <c r="W12" s="47"/>
-      <c r="X12" s="47"/>
-      <c r="Y12" s="47"/>
-      <c r="Z12" s="47"/>
-      <c r="AA12" s="47"/>
+      <c r="E12" s="27">
+        <v>0</v>
+      </c>
+      <c r="F12" s="27">
+        <v>0</v>
+      </c>
+      <c r="G12" s="28">
+        <v>0</v>
+      </c>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="31"/>
+      <c r="W12" s="31"/>
+      <c r="X12" s="31"/>
+      <c r="Y12" s="31"/>
+      <c r="Z12" s="31"/>
+      <c r="AA12" s="31"/>
     </row>
     <row r="13" spans="1:67" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="36"/>
-      <c r="B13" s="37" t="s">
+      <c r="A13" s="20"/>
+      <c r="B13" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="38">
+      <c r="C13" s="22">
         <v>4</v>
       </c>
-      <c r="D13" s="38">
+      <c r="D13" s="22">
         <v>4</v>
       </c>
-      <c r="E13" s="38">
-        <v>0</v>
-      </c>
-      <c r="F13" s="38">
-        <v>0</v>
-      </c>
-      <c r="G13" s="39">
+      <c r="E13" s="22">
+        <v>0</v>
+      </c>
+      <c r="F13" s="22">
+        <v>0</v>
+      </c>
+      <c r="G13" s="23">
         <v>0</v>
       </c>
       <c r="H13" s="18"/>
@@ -1703,501 +1703,501 @@
       <c r="AA13" s="18"/>
     </row>
     <row r="14" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="40"/>
-      <c r="B14" s="37" t="s">
+      <c r="A14" s="24"/>
+      <c r="B14" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="38">
+      <c r="C14" s="22">
         <v>7</v>
       </c>
-      <c r="D14" s="38">
+      <c r="D14" s="22">
         <v>2</v>
       </c>
-      <c r="E14" s="38">
-        <v>0</v>
-      </c>
-      <c r="F14" s="38">
-        <v>0</v>
-      </c>
-      <c r="G14" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:67" s="48" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="49"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="53"/>
-      <c r="R15" s="53"/>
-      <c r="S15" s="53"/>
-      <c r="T15" s="53"/>
-      <c r="U15" s="53"/>
-      <c r="V15" s="53"/>
-      <c r="W15" s="53"/>
-      <c r="X15" s="53"/>
-      <c r="Y15" s="53"/>
-      <c r="Z15" s="53"/>
-      <c r="AA15" s="53"/>
-    </row>
-    <row r="16" spans="1:67" s="48" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="49"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="53"/>
-      <c r="Q16" s="53"/>
-      <c r="R16" s="53"/>
-      <c r="S16" s="53"/>
-      <c r="T16" s="53"/>
-      <c r="U16" s="53"/>
-      <c r="V16" s="53"/>
-      <c r="W16" s="53"/>
-      <c r="X16" s="53"/>
-      <c r="Y16" s="53"/>
-      <c r="Z16" s="53"/>
-      <c r="AA16" s="53"/>
-    </row>
-    <row r="17" spans="2:27" s="52" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="49"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="54"/>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="54"/>
-      <c r="R17" s="54"/>
-      <c r="S17" s="54"/>
-      <c r="T17" s="54"/>
-      <c r="U17" s="54"/>
-      <c r="V17" s="54"/>
-      <c r="W17" s="54"/>
-      <c r="X17" s="54"/>
-      <c r="Y17" s="54"/>
-      <c r="Z17" s="54"/>
-      <c r="AA17" s="54"/>
-    </row>
-    <row r="18" spans="2:27" s="52" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="49"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="54"/>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="54"/>
-      <c r="R18" s="54"/>
-      <c r="S18" s="54"/>
-      <c r="T18" s="54"/>
-      <c r="U18" s="54"/>
-      <c r="V18" s="54"/>
-      <c r="W18" s="54"/>
-      <c r="X18" s="54"/>
-      <c r="Y18" s="54"/>
-      <c r="Z18" s="54"/>
-      <c r="AA18" s="54"/>
-    </row>
-    <row r="19" spans="2:27" s="48" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="49"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="53"/>
-      <c r="Q19" s="53"/>
-      <c r="R19" s="53"/>
-      <c r="S19" s="53"/>
-      <c r="T19" s="53"/>
-      <c r="U19" s="53"/>
-      <c r="V19" s="53"/>
-      <c r="W19" s="53"/>
-      <c r="X19" s="53"/>
-      <c r="Y19" s="53"/>
-      <c r="Z19" s="53"/>
-      <c r="AA19" s="53"/>
-    </row>
-    <row r="20" spans="2:27" s="48" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="49"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="53"/>
-      <c r="P20" s="53"/>
-      <c r="Q20" s="53"/>
-      <c r="R20" s="53"/>
-      <c r="S20" s="53"/>
-      <c r="T20" s="53"/>
-      <c r="U20" s="53"/>
-      <c r="V20" s="53"/>
-      <c r="W20" s="53"/>
-      <c r="X20" s="53"/>
-      <c r="Y20" s="53"/>
-      <c r="Z20" s="53"/>
-      <c r="AA20" s="53"/>
-    </row>
-    <row r="21" spans="2:27" s="48" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="49"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="53"/>
-      <c r="P21" s="53"/>
-      <c r="Q21" s="53"/>
-      <c r="R21" s="53"/>
-      <c r="S21" s="53"/>
-      <c r="T21" s="53"/>
-      <c r="U21" s="53"/>
-      <c r="V21" s="53"/>
-      <c r="W21" s="53"/>
-      <c r="X21" s="53"/>
-      <c r="Y21" s="53"/>
-      <c r="Z21" s="53"/>
-      <c r="AA21" s="53"/>
-    </row>
-    <row r="22" spans="2:27" s="48" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="49"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="53"/>
-      <c r="Q22" s="53"/>
-      <c r="R22" s="53"/>
-      <c r="S22" s="53"/>
-      <c r="T22" s="53"/>
-      <c r="U22" s="53"/>
-      <c r="V22" s="53"/>
-      <c r="W22" s="53"/>
-      <c r="X22" s="53"/>
-      <c r="Y22" s="53"/>
-      <c r="Z22" s="53"/>
-      <c r="AA22" s="53"/>
-    </row>
-    <row r="23" spans="2:27" s="48" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="49"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="53"/>
-      <c r="P23" s="53"/>
-      <c r="Q23" s="53"/>
-      <c r="R23" s="53"/>
-      <c r="S23" s="53"/>
-      <c r="T23" s="53"/>
-      <c r="U23" s="53"/>
-      <c r="V23" s="53"/>
-      <c r="W23" s="53"/>
-      <c r="X23" s="53"/>
-      <c r="Y23" s="53"/>
-      <c r="Z23" s="53"/>
-      <c r="AA23" s="53"/>
-    </row>
-    <row r="24" spans="2:27" s="48" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="49"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="53"/>
-      <c r="Q24" s="53"/>
-      <c r="R24" s="53"/>
-      <c r="S24" s="53"/>
-      <c r="T24" s="53"/>
-      <c r="U24" s="53"/>
-      <c r="V24" s="53"/>
-      <c r="W24" s="53"/>
-      <c r="X24" s="53"/>
-      <c r="Y24" s="53"/>
-      <c r="Z24" s="53"/>
-      <c r="AA24" s="53"/>
-    </row>
-    <row r="25" spans="2:27" s="48" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="49"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="53"/>
-      <c r="P25" s="53"/>
-      <c r="Q25" s="53"/>
-      <c r="R25" s="53"/>
-      <c r="S25" s="53"/>
-      <c r="T25" s="53"/>
-      <c r="U25" s="53"/>
-      <c r="V25" s="53"/>
-      <c r="W25" s="53"/>
-      <c r="X25" s="53"/>
-      <c r="Y25" s="53"/>
-      <c r="Z25" s="53"/>
-      <c r="AA25" s="53"/>
-    </row>
-    <row r="26" spans="2:27" s="48" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="49"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="53"/>
-      <c r="Q26" s="53"/>
-      <c r="R26" s="53"/>
-      <c r="S26" s="53"/>
-      <c r="T26" s="53"/>
-      <c r="U26" s="53"/>
-      <c r="V26" s="53"/>
-      <c r="W26" s="53"/>
-      <c r="X26" s="53"/>
-      <c r="Y26" s="53"/>
-      <c r="Z26" s="53"/>
-      <c r="AA26" s="53"/>
-    </row>
-    <row r="27" spans="2:27" s="48" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="49"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="53"/>
-      <c r="S27" s="53"/>
-      <c r="T27" s="53"/>
-      <c r="U27" s="53"/>
-      <c r="V27" s="53"/>
-      <c r="W27" s="53"/>
-      <c r="X27" s="53"/>
-      <c r="Y27" s="53"/>
-      <c r="Z27" s="53"/>
-      <c r="AA27" s="53"/>
-    </row>
-    <row r="28" spans="2:27" s="48" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="49"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="53"/>
-      <c r="O28" s="53"/>
-      <c r="P28" s="53"/>
-      <c r="Q28" s="53"/>
-      <c r="R28" s="53"/>
-      <c r="S28" s="53"/>
-      <c r="T28" s="53"/>
-      <c r="U28" s="53"/>
-      <c r="V28" s="53"/>
-      <c r="W28" s="53"/>
-      <c r="X28" s="53"/>
-      <c r="Y28" s="53"/>
-      <c r="Z28" s="53"/>
-      <c r="AA28" s="53"/>
-    </row>
-    <row r="29" spans="2:27" s="48" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="49"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="53"/>
-      <c r="P29" s="53"/>
-      <c r="Q29" s="53"/>
-      <c r="R29" s="53"/>
-      <c r="S29" s="53"/>
-      <c r="T29" s="53"/>
-      <c r="U29" s="53"/>
-      <c r="V29" s="53"/>
-      <c r="W29" s="53"/>
-      <c r="X29" s="53"/>
-      <c r="Y29" s="53"/>
-      <c r="Z29" s="53"/>
-      <c r="AA29" s="53"/>
-    </row>
-    <row r="30" spans="2:27" s="48" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="49"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="53"/>
-      <c r="P30" s="53"/>
-      <c r="Q30" s="53"/>
-      <c r="R30" s="53"/>
-      <c r="S30" s="53"/>
-      <c r="T30" s="53"/>
-      <c r="U30" s="53"/>
-      <c r="V30" s="53"/>
-      <c r="W30" s="53"/>
-      <c r="X30" s="53"/>
-      <c r="Y30" s="53"/>
-      <c r="Z30" s="53"/>
-      <c r="AA30" s="53"/>
-    </row>
-    <row r="31" spans="2:27" s="48" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="49"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="53"/>
-      <c r="O31" s="53"/>
-      <c r="P31" s="53"/>
-      <c r="Q31" s="53"/>
-      <c r="R31" s="53"/>
-      <c r="S31" s="53"/>
-      <c r="T31" s="53"/>
-      <c r="U31" s="53"/>
-      <c r="V31" s="53"/>
-      <c r="W31" s="53"/>
-      <c r="X31" s="53"/>
-      <c r="Y31" s="53"/>
-      <c r="Z31" s="53"/>
-      <c r="AA31" s="53"/>
+      <c r="E14" s="22">
+        <v>0</v>
+      </c>
+      <c r="F14" s="22">
+        <v>0</v>
+      </c>
+      <c r="G14" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:67" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="33"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="37"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="37"/>
+      <c r="W15" s="37"/>
+      <c r="X15" s="37"/>
+      <c r="Y15" s="37"/>
+      <c r="Z15" s="37"/>
+      <c r="AA15" s="37"/>
+    </row>
+    <row r="16" spans="1:67" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="33"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="37"/>
+      <c r="W16" s="37"/>
+      <c r="X16" s="37"/>
+      <c r="Y16" s="37"/>
+      <c r="Z16" s="37"/>
+      <c r="AA16" s="37"/>
+    </row>
+    <row r="17" spans="2:27" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="33"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="38"/>
+      <c r="W17" s="38"/>
+      <c r="X17" s="38"/>
+      <c r="Y17" s="38"/>
+      <c r="Z17" s="38"/>
+      <c r="AA17" s="38"/>
+    </row>
+    <row r="18" spans="2:27" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="33"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="38"/>
+      <c r="W18" s="38"/>
+      <c r="X18" s="38"/>
+      <c r="Y18" s="38"/>
+      <c r="Z18" s="38"/>
+      <c r="AA18" s="38"/>
+    </row>
+    <row r="19" spans="2:27" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="33"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="37"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="37"/>
+      <c r="W19" s="37"/>
+      <c r="X19" s="37"/>
+      <c r="Y19" s="37"/>
+      <c r="Z19" s="37"/>
+      <c r="AA19" s="37"/>
+    </row>
+    <row r="20" spans="2:27" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="33"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="37"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="37"/>
+      <c r="U20" s="37"/>
+      <c r="V20" s="37"/>
+      <c r="W20" s="37"/>
+      <c r="X20" s="37"/>
+      <c r="Y20" s="37"/>
+      <c r="Z20" s="37"/>
+      <c r="AA20" s="37"/>
+    </row>
+    <row r="21" spans="2:27" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="33"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="37"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="37"/>
+      <c r="U21" s="37"/>
+      <c r="V21" s="37"/>
+      <c r="W21" s="37"/>
+      <c r="X21" s="37"/>
+      <c r="Y21" s="37"/>
+      <c r="Z21" s="37"/>
+      <c r="AA21" s="37"/>
+    </row>
+    <row r="22" spans="2:27" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="33"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="37"/>
+      <c r="S22" s="37"/>
+      <c r="T22" s="37"/>
+      <c r="U22" s="37"/>
+      <c r="V22" s="37"/>
+      <c r="W22" s="37"/>
+      <c r="X22" s="37"/>
+      <c r="Y22" s="37"/>
+      <c r="Z22" s="37"/>
+      <c r="AA22" s="37"/>
+    </row>
+    <row r="23" spans="2:27" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="33"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="37"/>
+      <c r="R23" s="37"/>
+      <c r="S23" s="37"/>
+      <c r="T23" s="37"/>
+      <c r="U23" s="37"/>
+      <c r="V23" s="37"/>
+      <c r="W23" s="37"/>
+      <c r="X23" s="37"/>
+      <c r="Y23" s="37"/>
+      <c r="Z23" s="37"/>
+      <c r="AA23" s="37"/>
+    </row>
+    <row r="24" spans="2:27" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="33"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="37"/>
+      <c r="R24" s="37"/>
+      <c r="S24" s="37"/>
+      <c r="T24" s="37"/>
+      <c r="U24" s="37"/>
+      <c r="V24" s="37"/>
+      <c r="W24" s="37"/>
+      <c r="X24" s="37"/>
+      <c r="Y24" s="37"/>
+      <c r="Z24" s="37"/>
+      <c r="AA24" s="37"/>
+    </row>
+    <row r="25" spans="2:27" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="33"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
+      <c r="S25" s="37"/>
+      <c r="T25" s="37"/>
+      <c r="U25" s="37"/>
+      <c r="V25" s="37"/>
+      <c r="W25" s="37"/>
+      <c r="X25" s="37"/>
+      <c r="Y25" s="37"/>
+      <c r="Z25" s="37"/>
+      <c r="AA25" s="37"/>
+    </row>
+    <row r="26" spans="2:27" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="33"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="37"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="37"/>
+      <c r="U26" s="37"/>
+      <c r="V26" s="37"/>
+      <c r="W26" s="37"/>
+      <c r="X26" s="37"/>
+      <c r="Y26" s="37"/>
+      <c r="Z26" s="37"/>
+      <c r="AA26" s="37"/>
+    </row>
+    <row r="27" spans="2:27" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="33"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="37"/>
+      <c r="R27" s="37"/>
+      <c r="S27" s="37"/>
+      <c r="T27" s="37"/>
+      <c r="U27" s="37"/>
+      <c r="V27" s="37"/>
+      <c r="W27" s="37"/>
+      <c r="X27" s="37"/>
+      <c r="Y27" s="37"/>
+      <c r="Z27" s="37"/>
+      <c r="AA27" s="37"/>
+    </row>
+    <row r="28" spans="2:27" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="33"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="37"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="37"/>
+      <c r="R28" s="37"/>
+      <c r="S28" s="37"/>
+      <c r="T28" s="37"/>
+      <c r="U28" s="37"/>
+      <c r="V28" s="37"/>
+      <c r="W28" s="37"/>
+      <c r="X28" s="37"/>
+      <c r="Y28" s="37"/>
+      <c r="Z28" s="37"/>
+      <c r="AA28" s="37"/>
+    </row>
+    <row r="29" spans="2:27" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="33"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="37"/>
+      <c r="O29" s="37"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="37"/>
+      <c r="R29" s="37"/>
+      <c r="S29" s="37"/>
+      <c r="T29" s="37"/>
+      <c r="U29" s="37"/>
+      <c r="V29" s="37"/>
+      <c r="W29" s="37"/>
+      <c r="X29" s="37"/>
+      <c r="Y29" s="37"/>
+      <c r="Z29" s="37"/>
+      <c r="AA29" s="37"/>
+    </row>
+    <row r="30" spans="2:27" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="33"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="37"/>
+      <c r="Q30" s="37"/>
+      <c r="R30" s="37"/>
+      <c r="S30" s="37"/>
+      <c r="T30" s="37"/>
+      <c r="U30" s="37"/>
+      <c r="V30" s="37"/>
+      <c r="W30" s="37"/>
+      <c r="X30" s="37"/>
+      <c r="Y30" s="37"/>
+      <c r="Z30" s="37"/>
+      <c r="AA30" s="37"/>
+    </row>
+    <row r="31" spans="2:27" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="33"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="37"/>
+      <c r="O31" s="37"/>
+      <c r="P31" s="37"/>
+      <c r="Q31" s="37"/>
+      <c r="R31" s="37"/>
+      <c r="S31" s="37"/>
+      <c r="T31" s="37"/>
+      <c r="U31" s="37"/>
+      <c r="V31" s="37"/>
+      <c r="W31" s="37"/>
+      <c r="X31" s="37"/>
+      <c r="Y31" s="37"/>
+      <c r="Z31" s="37"/>
+      <c r="AA31" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\OneDrive\Documenten\GitHub\OWFSim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3EEE7BB-C865-4AFE-8B4D-9196E79850F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7347F64C-F4EC-4411-B18A-FB0A7A6EC8CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1106,7 +1106,7 @@
   <dimension ref="A1:BO31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A9" sqref="A9:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1140,7 +1140,7 @@
         <v>6</v>
       </c>
       <c r="H2" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" s="12"/>
       <c r="K2" s="47" t="s">
@@ -1430,10 +1430,10 @@
         <v>1</v>
       </c>
       <c r="F5" s="27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" s="28">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
@@ -1471,10 +1471,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="22">
+        <v>2</v>
+      </c>
+      <c r="G6" s="23">
         <v>1</v>
-      </c>
-      <c r="G6" s="23">
-        <v>0.4</v>
       </c>
     </row>
     <row r="7" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1489,13 +1489,13 @@
         <v>1</v>
       </c>
       <c r="E7" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F7" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="23">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="8" spans="1:67" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\OneDrive\Documenten\GitHub\OWFSim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7347F64C-F4EC-4411-B18A-FB0A7A6EC8CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041E3DC1-E0FC-4DDD-A2E0-77AB2D42E327}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1106,7 +1106,7 @@
   <dimension ref="A1:BO31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1140,7 +1140,7 @@
         <v>6</v>
       </c>
       <c r="H2" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J2" s="12"/>
       <c r="K2" s="47" t="s">
@@ -1430,10 +1430,10 @@
         <v>1</v>
       </c>
       <c r="F5" s="27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5" s="28">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
@@ -1492,10 +1492,10 @@
         <v>2</v>
       </c>
       <c r="F7" s="22">
+        <v>2</v>
+      </c>
+      <c r="G7" s="23">
         <v>1</v>
-      </c>
-      <c r="G7" s="23">
-        <v>0.8</v>
       </c>
     </row>
     <row r="8" spans="1:67" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1509,13 +1509,13 @@
         <v>4</v>
       </c>
       <c r="E8" s="27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F8" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="28">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="H8" s="31"/>
       <c r="I8" s="31"/>
@@ -1550,13 +1550,13 @@
         <v>2</v>
       </c>
       <c r="E9" s="22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F9" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="23">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\OneDrive\Documenten\GitHub\OWFSim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041E3DC1-E0FC-4DDD-A2E0-77AB2D42E327}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED46F9C7-731B-4488-9F27-2D8F2F06BA17}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1106,7 +1106,7 @@
   <dimension ref="A1:BO31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1140,7 +1140,7 @@
         <v>6</v>
       </c>
       <c r="H2" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J2" s="12"/>
       <c r="K2" s="47" t="s">
@@ -1492,7 +1492,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7" s="23">
         <v>1</v>
@@ -1512,7 +1512,7 @@
         <v>3</v>
       </c>
       <c r="F8" s="27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" s="28">
         <v>0.05</v>
@@ -1553,10 +1553,10 @@
         <v>3</v>
       </c>
       <c r="F9" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" s="23">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\OneDrive\Documenten\GitHub\OWFSim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED46F9C7-731B-4488-9F27-2D8F2F06BA17}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662B7C36-B236-4720-91B4-C4A3F2EAB970}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1140,7 +1140,7 @@
         <v>6</v>
       </c>
       <c r="H2" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J2" s="12"/>
       <c r="K2" s="47" t="s">
@@ -1512,10 +1512,10 @@
         <v>3</v>
       </c>
       <c r="F8" s="27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8" s="28">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="H8" s="31"/>
       <c r="I8" s="31"/>
@@ -1553,10 +1553,10 @@
         <v>3</v>
       </c>
       <c r="F9" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9" s="23">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\OneDrive\Documenten\GitHub\OWFSim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662B7C36-B236-4720-91B4-C4A3F2EAB970}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5559CD-CB4C-4AD5-B93A-3097DFDF2322}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1106,7 +1106,7 @@
   <dimension ref="A1:BO31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1140,7 +1140,7 @@
         <v>6</v>
       </c>
       <c r="H2" s="11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J2" s="12"/>
       <c r="K2" s="47" t="s">
@@ -1512,10 +1512,10 @@
         <v>3</v>
       </c>
       <c r="F8" s="27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8" s="28">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="H8" s="31"/>
       <c r="I8" s="31"/>
@@ -1553,10 +1553,10 @@
         <v>3</v>
       </c>
       <c r="F9" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G9" s="23">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
@@ -1585,7 +1585,7 @@
         <v>23</v>
       </c>
       <c r="C10" s="22">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D10" s="22">
         <v>2</v>
@@ -1606,7 +1606,7 @@
         <v>17</v>
       </c>
       <c r="C11" s="22">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D11" s="22">
         <v>2</v>
@@ -1626,7 +1626,7 @@
         <v>16</v>
       </c>
       <c r="C12" s="27">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D12" s="27">
         <v>5</v>
@@ -1667,7 +1667,7 @@
         <v>24</v>
       </c>
       <c r="C13" s="22">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D13" s="22">
         <v>4</v>
@@ -1708,7 +1708,7 @@
         <v>18</v>
       </c>
       <c r="C14" s="22">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D14" s="22">
         <v>2</v>

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\OneDrive\Documenten\GitHub\OWFSim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5559CD-CB4C-4AD5-B93A-3097DFDF2322}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCF979D-4FF4-48D8-92B4-5ADC8C392DE9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1106,7 +1106,7 @@
   <dimension ref="A1:BO31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1140,7 +1140,7 @@
         <v>6</v>
       </c>
       <c r="H2" s="11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J2" s="12"/>
       <c r="K2" s="47" t="s">
@@ -1512,10 +1512,10 @@
         <v>3</v>
       </c>
       <c r="F8" s="27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G8" s="28">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H8" s="31"/>
       <c r="I8" s="31"/>
@@ -1553,10 +1553,10 @@
         <v>3</v>
       </c>
       <c r="F9" s="22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G9" s="23">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\OneDrive\Documenten\GitHub\OWFSim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCF979D-4FF4-48D8-92B4-5ADC8C392DE9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCAE64DE-C580-4F81-A944-F96B91931C73}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Project Planner</t>
   </si>
@@ -716,7 +716,120 @@
     <cellStyle name="Project Headers" xfId="4" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Title" xfId="8" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="18">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1106,7 +1219,7 @@
   <dimension ref="A1:BO31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1140,7 +1253,7 @@
         <v>6</v>
       </c>
       <c r="H2" s="11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J2" s="12"/>
       <c r="K2" s="47" t="s">
@@ -1512,10 +1625,10 @@
         <v>3</v>
       </c>
       <c r="F8" s="27">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G8" s="28">
-        <v>0.55000000000000004</v>
+        <v>0.6</v>
       </c>
       <c r="H8" s="31"/>
       <c r="I8" s="31"/>
@@ -1553,10 +1666,10 @@
         <v>3</v>
       </c>
       <c r="F9" s="22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G9" s="23">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
@@ -1579,31 +1692,51 @@
       <c r="Z9" s="18"/>
       <c r="AA9" s="18"/>
     </row>
-    <row r="10" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="24"/>
+    <row r="10" spans="1:67" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="20"/>
       <c r="B10" s="21" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C10" s="22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" s="22">
         <v>2</v>
       </c>
       <c r="E10" s="22">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F10" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="23">
-        <v>0</v>
-      </c>
+        <v>0.3</v>
+      </c>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="18"/>
+      <c r="Y10" s="18"/>
+      <c r="Z10" s="18"/>
+      <c r="AA10" s="18"/>
     </row>
     <row r="11" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="24"/>
       <c r="B11" s="21" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C11" s="22">
         <v>8</v>
@@ -1621,97 +1754,77 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:67" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="26" t="s">
+    <row r="12" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="24"/>
+      <c r="B12" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="22">
+        <v>8</v>
+      </c>
+      <c r="D12" s="22">
+        <v>2</v>
+      </c>
+      <c r="E12" s="22">
+        <v>0</v>
+      </c>
+      <c r="F12" s="22">
+        <v>0</v>
+      </c>
+      <c r="G12" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:67" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C13" s="27">
         <v>10</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D13" s="27">
         <v>5</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E13" s="27">
         <v>0</v>
       </c>
-      <c r="F12" s="27">
+      <c r="F13" s="27">
         <v>0</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G13" s="28">
         <v>0</v>
       </c>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="31"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="31"/>
-      <c r="V12" s="31"/>
-      <c r="W12" s="31"/>
-      <c r="X12" s="31"/>
-      <c r="Y12" s="31"/>
-      <c r="Z12" s="31"/>
-      <c r="AA12" s="31"/>
-    </row>
-    <row r="13" spans="1:67" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
-      <c r="B13" s="21" t="s">
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
+      <c r="W13" s="31"/>
+      <c r="X13" s="31"/>
+      <c r="Y13" s="31"/>
+      <c r="Z13" s="31"/>
+      <c r="AA13" s="31"/>
+    </row>
+    <row r="14" spans="1:67" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="20"/>
+      <c r="B14" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C14" s="22">
         <v>10</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D14" s="22">
         <v>4</v>
-      </c>
-      <c r="E13" s="22">
-        <v>0</v>
-      </c>
-      <c r="F13" s="22">
-        <v>0</v>
-      </c>
-      <c r="G13" s="23">
-        <v>0</v>
-      </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
-      <c r="W13" s="18"/>
-      <c r="X13" s="18"/>
-      <c r="Y13" s="18"/>
-      <c r="Z13" s="18"/>
-      <c r="AA13" s="18"/>
-    </row>
-    <row r="14" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="24"/>
-      <c r="B14" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="22">
-        <v>13</v>
-      </c>
-      <c r="D14" s="22">
-        <v>2</v>
       </c>
       <c r="E14" s="22">
         <v>0</v>
@@ -1722,34 +1835,47 @@
       <c r="G14" s="23">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:67" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="33"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="37"/>
-      <c r="U15" s="37"/>
-      <c r="V15" s="37"/>
-      <c r="W15" s="37"/>
-      <c r="X15" s="37"/>
-      <c r="Y15" s="37"/>
-      <c r="Z15" s="37"/>
-      <c r="AA15" s="37"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="18"/>
+      <c r="W14" s="18"/>
+      <c r="X14" s="18"/>
+      <c r="Y14" s="18"/>
+      <c r="Z14" s="18"/>
+      <c r="AA14" s="18"/>
+    </row>
+    <row r="15" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="24"/>
+      <c r="B15" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="22">
+        <v>13</v>
+      </c>
+      <c r="D15" s="22">
+        <v>2</v>
+      </c>
+      <c r="E15" s="22">
+        <v>0</v>
+      </c>
+      <c r="F15" s="22">
+        <v>0</v>
+      </c>
+      <c r="G15" s="23">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:67" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="33"/>
@@ -2214,40 +2340,66 @@
     <mergeCell ref="V2:Y2"/>
     <mergeCell ref="AA2:AG2"/>
   </mergeCells>
-  <conditionalFormatting sqref="H5:BO31">
-    <cfRule type="expression" dxfId="9" priority="1">
+  <conditionalFormatting sqref="H5:BO9 H11:BO31">
+    <cfRule type="expression" dxfId="17" priority="9">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="3">
+    <cfRule type="expression" dxfId="16" priority="11">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="15" priority="12">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="5">
+    <cfRule type="expression" dxfId="14" priority="13">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="13" priority="14">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="7">
+    <cfRule type="expression" dxfId="12" priority="15">
       <formula>H$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="11">
+    <cfRule type="expression" dxfId="11" priority="19">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="12">
+    <cfRule type="expression" dxfId="10" priority="20">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32:BO32">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:BO4">
+    <cfRule type="expression" dxfId="8" priority="16">
+      <formula>H$4=period_selected</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10:BO10">
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="2">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="6">
+      <formula>H$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="7">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="0" priority="8">
-      <formula>H$4=period_selected</formula>
+      <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="16">

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\OneDrive\Documenten\GitHub\OWFSim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCAE64DE-C580-4F81-A944-F96B91931C73}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8805548-414D-4D3B-BAD0-C93900782794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1219,7 +1219,7 @@
   <dimension ref="A1:BO31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1253,7 +1253,7 @@
         <v>6</v>
       </c>
       <c r="H2" s="11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J2" s="12"/>
       <c r="K2" s="47" t="s">
@@ -1625,10 +1625,10 @@
         <v>3</v>
       </c>
       <c r="F8" s="27">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G8" s="28">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="H8" s="31"/>
       <c r="I8" s="31"/>
@@ -1707,10 +1707,10 @@
         <v>7</v>
       </c>
       <c r="F10" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" s="23">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\OneDrive\Documenten\GitHub\OWFSim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8805548-414D-4D3B-BAD0-C93900782794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141E13C3-5FCC-4E12-AE13-02019E1D7375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Project Planner</t>
   </si>
@@ -184,6 +184,9 @@
   </si>
   <si>
     <t>Thesis</t>
+  </si>
+  <si>
+    <t>Revision</t>
   </si>
 </sst>
 </file>
@@ -716,7 +719,120 @@
     <cellStyle name="Project Headers" xfId="4" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Title" xfId="8" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="26">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1216,10 +1332,10 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BO31"/>
+  <dimension ref="A1:BO32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1253,7 +1369,7 @@
         <v>6</v>
       </c>
       <c r="H2" s="11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2" s="12"/>
       <c r="K2" s="47" t="s">
@@ -1628,7 +1744,7 @@
         <v>7</v>
       </c>
       <c r="G8" s="28">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="H8" s="31"/>
       <c r="I8" s="31"/>
@@ -1666,10 +1782,10 @@
         <v>3</v>
       </c>
       <c r="F9" s="22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G9" s="23">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
@@ -1707,10 +1823,10 @@
         <v>7</v>
       </c>
       <c r="F10" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G10" s="23">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
@@ -1739,28 +1855,28 @@
         <v>23</v>
       </c>
       <c r="C11" s="22">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D11" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11" s="22">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F11" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="23">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="12" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="24"/>
       <c r="B12" s="21" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C12" s="22">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D12" s="22">
         <v>2</v>
@@ -1775,97 +1891,77 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:67" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="26" t="s">
+    <row r="13" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="24"/>
+      <c r="B13" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="22">
+        <v>10</v>
+      </c>
+      <c r="D13" s="22">
+        <v>3</v>
+      </c>
+      <c r="E13" s="22">
+        <v>10</v>
+      </c>
+      <c r="F13" s="22">
+        <v>1</v>
+      </c>
+      <c r="G13" s="23">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:67" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="27">
-        <v>10</v>
-      </c>
-      <c r="D13" s="27">
+      <c r="C14" s="27">
+        <v>12</v>
+      </c>
+      <c r="D14" s="27">
         <v>5</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E14" s="27">
         <v>0</v>
       </c>
-      <c r="F13" s="27">
+      <c r="F14" s="27">
         <v>0</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G14" s="28">
         <v>0</v>
       </c>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="31"/>
-      <c r="S13" s="31"/>
-      <c r="T13" s="31"/>
-      <c r="U13" s="31"/>
-      <c r="V13" s="31"/>
-      <c r="W13" s="31"/>
-      <c r="X13" s="31"/>
-      <c r="Y13" s="31"/>
-      <c r="Z13" s="31"/>
-      <c r="AA13" s="31"/>
-    </row>
-    <row r="14" spans="1:67" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21" t="s">
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="31"/>
+      <c r="U14" s="31"/>
+      <c r="V14" s="31"/>
+      <c r="W14" s="31"/>
+      <c r="X14" s="31"/>
+      <c r="Y14" s="31"/>
+      <c r="Z14" s="31"/>
+      <c r="AA14" s="31"/>
+    </row>
+    <row r="15" spans="1:67" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="20"/>
+      <c r="B15" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="22">
-        <v>10</v>
-      </c>
-      <c r="D14" s="22">
+      <c r="C15" s="22">
+        <v>12</v>
+      </c>
+      <c r="D15" s="22">
         <v>4</v>
-      </c>
-      <c r="E14" s="22">
-        <v>0</v>
-      </c>
-      <c r="F14" s="22">
-        <v>0</v>
-      </c>
-      <c r="G14" s="23">
-        <v>0</v>
-      </c>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
-      <c r="U14" s="18"/>
-      <c r="V14" s="18"/>
-      <c r="W14" s="18"/>
-      <c r="X14" s="18"/>
-      <c r="Y14" s="18"/>
-      <c r="Z14" s="18"/>
-      <c r="AA14" s="18"/>
-    </row>
-    <row r="15" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
-      <c r="B15" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="22">
-        <v>13</v>
-      </c>
-      <c r="D15" s="22">
-        <v>2</v>
       </c>
       <c r="E15" s="22">
         <v>0</v>
@@ -1876,62 +1972,75 @@
       <c r="G15" s="23">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:67" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="33"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="37"/>
-      <c r="T16" s="37"/>
-      <c r="U16" s="37"/>
-      <c r="V16" s="37"/>
-      <c r="W16" s="37"/>
-      <c r="X16" s="37"/>
-      <c r="Y16" s="37"/>
-      <c r="Z16" s="37"/>
-      <c r="AA16" s="37"/>
-    </row>
-    <row r="17" spans="2:27" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="18"/>
+      <c r="X15" s="18"/>
+      <c r="Y15" s="18"/>
+      <c r="Z15" s="18"/>
+      <c r="AA15" s="18"/>
+    </row>
+    <row r="16" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="24"/>
+      <c r="B16" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="22">
+        <v>15</v>
+      </c>
+      <c r="D16" s="22">
+        <v>2</v>
+      </c>
+      <c r="E16" s="22">
+        <v>0</v>
+      </c>
+      <c r="F16" s="22">
+        <v>0</v>
+      </c>
+      <c r="G16" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:27" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="33"/>
       <c r="C17" s="34"/>
       <c r="D17" s="34"/>
       <c r="E17" s="34"/>
       <c r="F17" s="34"/>
       <c r="G17" s="35"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="38"/>
-      <c r="S17" s="38"/>
-      <c r="T17" s="38"/>
-      <c r="U17" s="38"/>
-      <c r="V17" s="38"/>
-      <c r="W17" s="38"/>
-      <c r="X17" s="38"/>
-      <c r="Y17" s="38"/>
-      <c r="Z17" s="38"/>
-      <c r="AA17" s="38"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="37"/>
+      <c r="U17" s="37"/>
+      <c r="V17" s="37"/>
+      <c r="W17" s="37"/>
+      <c r="X17" s="37"/>
+      <c r="Y17" s="37"/>
+      <c r="Z17" s="37"/>
+      <c r="AA17" s="37"/>
     </row>
     <row r="18" spans="2:27" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="33"/>
@@ -1961,33 +2070,33 @@
       <c r="Z18" s="38"/>
       <c r="AA18" s="38"/>
     </row>
-    <row r="19" spans="2:27" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:27" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="33"/>
       <c r="C19" s="34"/>
       <c r="D19" s="34"/>
       <c r="E19" s="34"/>
       <c r="F19" s="34"/>
       <c r="G19" s="35"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="37"/>
-      <c r="T19" s="37"/>
-      <c r="U19" s="37"/>
-      <c r="V19" s="37"/>
-      <c r="W19" s="37"/>
-      <c r="X19" s="37"/>
-      <c r="Y19" s="37"/>
-      <c r="Z19" s="37"/>
-      <c r="AA19" s="37"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="38"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="38"/>
+      <c r="V19" s="38"/>
+      <c r="W19" s="38"/>
+      <c r="X19" s="38"/>
+      <c r="Y19" s="38"/>
+      <c r="Z19" s="38"/>
+      <c r="AA19" s="38"/>
     </row>
     <row r="20" spans="2:27" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="33"/>
@@ -2325,6 +2434,34 @@
       <c r="Z31" s="37"/>
       <c r="AA31" s="37"/>
     </row>
+    <row r="32" spans="2:27" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="33"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="37"/>
+      <c r="P32" s="37"/>
+      <c r="Q32" s="37"/>
+      <c r="R32" s="37"/>
+      <c r="S32" s="37"/>
+      <c r="T32" s="37"/>
+      <c r="U32" s="37"/>
+      <c r="V32" s="37"/>
+      <c r="W32" s="37"/>
+      <c r="X32" s="37"/>
+      <c r="Y32" s="37"/>
+      <c r="Z32" s="37"/>
+      <c r="AA32" s="37"/>
+    </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="AI2:AP2"/>
@@ -2340,43 +2477,69 @@
     <mergeCell ref="V2:Y2"/>
     <mergeCell ref="AA2:AG2"/>
   </mergeCells>
-  <conditionalFormatting sqref="H5:BO9 H11:BO31">
-    <cfRule type="expression" dxfId="17" priority="9">
+  <conditionalFormatting sqref="H5:BO9 H12:BO32">
+    <cfRule type="expression" dxfId="25" priority="17">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="11">
+    <cfRule type="expression" dxfId="24" priority="19">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="12">
+    <cfRule type="expression" dxfId="23" priority="20">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="13">
+    <cfRule type="expression" dxfId="22" priority="21">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="21" priority="22">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="15">
+    <cfRule type="expression" dxfId="20" priority="23">
       <formula>H$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="19">
+    <cfRule type="expression" dxfId="19" priority="27">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="20">
+    <cfRule type="expression" dxfId="18" priority="28">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B32:BO32">
-    <cfRule type="expression" dxfId="9" priority="10">
+  <conditionalFormatting sqref="B33:BO33">
+    <cfRule type="expression" dxfId="17" priority="18">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:BO4">
-    <cfRule type="expression" dxfId="8" priority="16">
+    <cfRule type="expression" dxfId="16" priority="24">
       <formula>H$4=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:BO10">
+    <cfRule type="expression" dxfId="15" priority="9">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="10">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="11">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="12">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="13">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="14">
+      <formula>H$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="15">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="16">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11:BO11">
     <cfRule type="expression" dxfId="7" priority="1">
       <formula>PercentComplete</formula>
     </cfRule>

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\OneDrive\Documenten\GitHub\OWFSim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141E13C3-5FCC-4E12-AE13-02019E1D7375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1A1C3B-8EFE-4051-99E8-D56706CFDD43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1335,7 +1335,7 @@
   <dimension ref="A1:BO32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1369,7 +1369,7 @@
         <v>6</v>
       </c>
       <c r="H2" s="11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J2" s="12"/>
       <c r="K2" s="47" t="s">
@@ -1741,7 +1741,7 @@
         <v>3</v>
       </c>
       <c r="F8" s="27">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G8" s="28">
         <v>0.7</v>
@@ -1823,7 +1823,7 @@
         <v>7</v>
       </c>
       <c r="F10" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G10" s="23">
         <v>0.8</v>
@@ -1882,13 +1882,13 @@
         <v>2</v>
       </c>
       <c r="E12" s="22">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F12" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="23">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="13" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\OneDrive\Documenten\GitHub\OWFSim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1A1C3B-8EFE-4051-99E8-D56706CFDD43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FADE55F9-1588-4B4E-BFE7-9FA1217F47E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1335,7 +1335,7 @@
   <dimension ref="A1:BO32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1369,7 +1369,7 @@
         <v>6</v>
       </c>
       <c r="H2" s="11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J2" s="12"/>
       <c r="K2" s="47" t="s">
@@ -1741,10 +1741,10 @@
         <v>3</v>
       </c>
       <c r="F8" s="27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G8" s="28">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H8" s="31"/>
       <c r="I8" s="31"/>
@@ -1823,10 +1823,10 @@
         <v>7</v>
       </c>
       <c r="F10" s="22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G10" s="23">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
@@ -1864,10 +1864,10 @@
         <v>10</v>
       </c>
       <c r="F11" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" s="23">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="12" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1885,10 +1885,10 @@
         <v>11</v>
       </c>
       <c r="F12" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" s="23">
-        <v>0.2</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="13" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\OneDrive\Documenten\GitHub\OWFSim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FADE55F9-1588-4B4E-BFE7-9FA1217F47E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB6AAEE-B2C0-4407-B6EE-D0ECD7E76B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1335,7 +1335,7 @@
   <dimension ref="A1:BO32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1369,7 +1369,7 @@
         <v>6</v>
       </c>
       <c r="H2" s="11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J2" s="12"/>
       <c r="K2" s="47" t="s">
@@ -1864,10 +1864,10 @@
         <v>10</v>
       </c>
       <c r="F11" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11" s="23">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="12" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1906,10 +1906,10 @@
         <v>10</v>
       </c>
       <c r="F13" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" s="23">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="14" spans="1:67" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\OneDrive\Documenten\GitHub\OWFSim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB6AAEE-B2C0-4407-B6EE-D0ECD7E76B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4449CB99-F474-4C18-AC1F-B0B24CCB856B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1335,7 +1335,7 @@
   <dimension ref="A1:BO32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1369,7 +1369,7 @@
         <v>6</v>
       </c>
       <c r="H2" s="11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J2" s="12"/>
       <c r="K2" s="47" t="s">
@@ -1741,7 +1741,7 @@
         <v>3</v>
       </c>
       <c r="F8" s="27">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G8" s="28">
         <v>0.8</v>
@@ -1864,10 +1864,10 @@
         <v>10</v>
       </c>
       <c r="F11" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G11" s="23">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="12" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1885,10 +1885,10 @@
         <v>11</v>
       </c>
       <c r="F12" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G12" s="23">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1906,10 +1906,10 @@
         <v>10</v>
       </c>
       <c r="F13" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G13" s="23">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:67" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\OneDrive\Documenten\GitHub\OWFSim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4449CB99-F474-4C18-AC1F-B0B24CCB856B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C854A067-842F-4593-92BA-8B6E17BA28A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1335,7 +1335,7 @@
   <dimension ref="A1:BO32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1735,7 +1735,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="27">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E8" s="27">
         <v>3</v>
@@ -1817,7 +1817,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="22">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E10" s="22">
         <v>7</v>
@@ -1858,7 +1858,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E11" s="22">
         <v>10</v>
@@ -1900,7 +1900,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E13" s="22">
         <v>10</v>
@@ -1917,7 +1917,7 @@
         <v>16</v>
       </c>
       <c r="C14" s="27">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D14" s="27">
         <v>5</v>
@@ -1958,7 +1958,7 @@
         <v>24</v>
       </c>
       <c r="C15" s="22">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D15" s="22">
         <v>4</v>
@@ -1999,7 +1999,7 @@
         <v>18</v>
       </c>
       <c r="C16" s="22">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D16" s="22">
         <v>2</v>

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\OneDrive\Documenten\GitHub\OWFSim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C854A067-842F-4593-92BA-8B6E17BA28A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD065722-A779-413D-BBBB-74B868E11BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1335,7 +1335,7 @@
   <dimension ref="A1:BO32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1369,7 +1369,7 @@
         <v>6</v>
       </c>
       <c r="H2" s="11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J2" s="12"/>
       <c r="K2" s="47" t="s">
@@ -1741,10 +1741,10 @@
         <v>3</v>
       </c>
       <c r="F8" s="27">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G8" s="28">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H8" s="31"/>
       <c r="I8" s="31"/>
@@ -1864,10 +1864,10 @@
         <v>10</v>
       </c>
       <c r="F11" s="22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G11" s="23">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="12" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1906,10 +1906,10 @@
         <v>10</v>
       </c>
       <c r="F13" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G13" s="23">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="14" spans="1:67" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\OneDrive\Documenten\GitHub\OWFSim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD065722-A779-413D-BBBB-74B868E11BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC71028-EFEE-4799-837E-F9DA1BA3BC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1335,7 +1335,7 @@
   <dimension ref="A1:BO32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1369,7 +1369,7 @@
         <v>6</v>
       </c>
       <c r="H2" s="11">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J2" s="12"/>
       <c r="K2" s="47" t="s">
@@ -1741,10 +1741,10 @@
         <v>3</v>
       </c>
       <c r="F8" s="27">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" s="28">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="H8" s="31"/>
       <c r="I8" s="31"/>
@@ -1823,10 +1823,10 @@
         <v>7</v>
       </c>
       <c r="F10" s="22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G10" s="23">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
@@ -1864,10 +1864,10 @@
         <v>10</v>
       </c>
       <c r="F11" s="22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G11" s="23">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1906,10 +1906,10 @@
         <v>10</v>
       </c>
       <c r="F13" s="22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G13" s="23">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="14" spans="1:67" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1923,13 +1923,13 @@
         <v>5</v>
       </c>
       <c r="E14" s="27">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F14" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="28">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="H14" s="31"/>
       <c r="I14" s="31"/>
@@ -1964,13 +1964,13 @@
         <v>4</v>
       </c>
       <c r="E15" s="22">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F15" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="23">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
